--- a/faza_2.xlsx
+++ b/faza_2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokan\Documents\LENA\Masters\OPJ\natural-language-processing-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423231B-D19E-4C66-AD10-2CE3DCE91A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1168">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -2239,16 +2245,1297 @@
   </si>
   <si>
     <t>Dohvati vrednost i ispis je na standarnom izlazu na konzoli.</t>
+  </si>
+  <si>
+    <t>Vraca informaciju o modelu sa datim indeksom.</t>
+  </si>
+  <si>
+    <t>71_updateModel</t>
+  </si>
+  <si>
+    <t>Azurira model sa dve nove vrednosti.</t>
+  </si>
+  <si>
+    <t>71_summarizeModel</t>
+  </si>
+  <si>
+    <t>Vraca opise modela neuralne mreze.</t>
+  </si>
+  <si>
+    <t>71_printModelSummary</t>
+  </si>
+  <si>
+    <t>Ispisuje pregled modela.</t>
+  </si>
+  <si>
+    <t>71_injectCertificate</t>
+  </si>
+  <si>
+    <t>Ubacivanje digitalnog sertifikata u sigurno sklafiste.</t>
+  </si>
+  <si>
+    <t>71_printModelAttribute</t>
+  </si>
+  <si>
+    <t>Ispis pregleda atributa.</t>
+  </si>
+  <si>
+    <t>72_deleteUniqueElements</t>
+  </si>
+  <si>
+    <t>Brisanje jedinstvenih elemenata liste.</t>
+  </si>
+  <si>
+    <t>72_findAllElements</t>
+  </si>
+  <si>
+    <t>Vraca sve elemente liste.</t>
+  </si>
+  <si>
+    <t>Vraca listu elemenata koji su jedinstveni.</t>
+  </si>
+  <si>
+    <t>72_gatherFiveUniqueElements</t>
+  </si>
+  <si>
+    <t>Vraca listu od maksimum 5 jedinstvenih elemenata.</t>
+  </si>
+  <si>
+    <t>72_getSimilarElements</t>
+  </si>
+  <si>
+    <t>Vraca listu slicnih elemenata.</t>
+  </si>
+  <si>
+    <t>72_increasePrice</t>
+  </si>
+  <si>
+    <t>Povecaj cenu za odredjeni procenat</t>
+  </si>
+  <si>
+    <t>72_updateId</t>
+  </si>
+  <si>
+    <t>Azuriraj identifikator</t>
+  </si>
+  <si>
+    <t>73_getHtmlElementById</t>
+  </si>
+  <si>
+    <t>Vraca html element dat identifikatorom. Proverava se validnost identifikatora</t>
+  </si>
+  <si>
+    <t>73_getHtmlInfo</t>
+  </si>
+  <si>
+    <t>Vraca html info element</t>
+  </si>
+  <si>
+    <t>73_getHtmlMetadata</t>
+  </si>
+  <si>
+    <t>Vraca html metadata ukljucujuci naslov, vreme kreiranja i velicinu fajla</t>
+  </si>
+  <si>
+    <t>73_getWebElement</t>
+  </si>
+  <si>
+    <t>Vraca web element</t>
+  </si>
+  <si>
+    <t>73_playMusic</t>
+  </si>
+  <si>
+    <t>Pusta muziku</t>
+  </si>
+  <si>
+    <t>73_getHeader1</t>
+  </si>
+  <si>
+    <t>Ekstrakcija h1 html elementa na kog se prvo naidje</t>
+  </si>
+  <si>
+    <t>73_getHtmlBody</t>
+  </si>
+  <si>
+    <t>Ekstrakcija body html elementa i ispis rezultata</t>
+  </si>
+  <si>
+    <t>74_changeMapName</t>
+  </si>
+  <si>
+    <t>Promena imena toplotne map</t>
+  </si>
+  <si>
+    <t>74_formHeatMapFrom3D</t>
+  </si>
+  <si>
+    <t>Pravljenje toplotne mape od 3D koordinata</t>
+  </si>
+  <si>
+    <t>74_generateHeatMap</t>
+  </si>
+  <si>
+    <t>Pravljenje toplotne mape</t>
+  </si>
+  <si>
+    <t>74_populate</t>
+  </si>
+  <si>
+    <t>Popunjava niza random podacima</t>
+  </si>
+  <si>
+    <t>74_updateHeatMap</t>
+  </si>
+  <si>
+    <t>Azuriranje toplotne mape sa novim unosom koordinate</t>
+  </si>
+  <si>
+    <t>74_3dCoordinatesToMap</t>
+  </si>
+  <si>
+    <t>Mapiranje 3d koordinata</t>
+  </si>
+  <si>
+    <t>75_getAllXmlNodes</t>
+  </si>
+  <si>
+    <t>Uzeti sve xml cvorove</t>
+  </si>
+  <si>
+    <t>75_getMaximumValue</t>
+  </si>
+  <si>
+    <t>Dobiti maksimalnu vrednost iz niza</t>
+  </si>
+  <si>
+    <t>75_getMinimumValue</t>
+  </si>
+  <si>
+    <t>Dobiti minimum vrednost iz niza</t>
+  </si>
+  <si>
+    <t>75_getNodeDescription</t>
+  </si>
+  <si>
+    <t>Prikazi xml cvor</t>
+  </si>
+  <si>
+    <t>75_getParentNode</t>
+  </si>
+  <si>
+    <t>Uzeti roditeljski cvor od cvora sa nodeId</t>
+  </si>
+  <si>
+    <t>75_updateXmlParentNode</t>
+  </si>
+  <si>
+    <t>Azurirati ime roditelja cvora sa nodeId</t>
+  </si>
+  <si>
+    <t>75_getAllParentNodes</t>
+  </si>
+  <si>
+    <t>Uzeti sve roditelje xml cvora sa identifikatorom nodeId</t>
+  </si>
+  <si>
+    <t>76_extractData</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka iz cvora</t>
+  </si>
+  <si>
+    <t>76_extractZipFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija zip fajla</t>
+  </si>
+  <si>
+    <t>76_extractZipFileRecursively</t>
+  </si>
+  <si>
+    <t>Ekstrakcija zip fajla rekurzivno</t>
+  </si>
+  <si>
+    <t>76_getFilesFromZip</t>
+  </si>
+  <si>
+    <t>Dobijanje fajlova iz zip arhive</t>
+  </si>
+  <si>
+    <t>76_openZipFile</t>
+  </si>
+  <si>
+    <t>Otvoriti zip arhivu</t>
+  </si>
+  <si>
+    <t>76_checkIfZip</t>
+  </si>
+  <si>
+    <t>Proveriti da li je fajl zip formata</t>
+  </si>
+  <si>
+    <t>77_getWidgetName</t>
+  </si>
+  <si>
+    <t>Vraca ime vidzeta</t>
+  </si>
+  <si>
+    <t>77_removeCertificate</t>
+  </si>
+  <si>
+    <t>Izbaci sertifikat iz list sertifikata</t>
+  </si>
+  <si>
+    <t>77_underlineLabelName</t>
+  </si>
+  <si>
+    <t>Podvuci ime oznake</t>
+  </si>
+  <si>
+    <t>77_underlieWidget</t>
+  </si>
+  <si>
+    <t>Podvuci tekst u nazivu vidzeta</t>
+  </si>
+  <si>
+    <t>77_underlineWidgetTitle</t>
+  </si>
+  <si>
+    <t>Podvuci naslov vidzeta</t>
+  </si>
+  <si>
+    <t>77_updateLabelName</t>
+  </si>
+  <si>
+    <t>Azuriraj ime oznake</t>
+  </si>
+  <si>
+    <t>78_extractLargeFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka iz velikog fajla</t>
+  </si>
+  <si>
+    <t>78_findOutlet</t>
+  </si>
+  <si>
+    <t>Pronaci prodavnicu</t>
+  </si>
+  <si>
+    <t>78_getContentsLargeFile</t>
+  </si>
+  <si>
+    <t>Vraca podatke iz velikog fajla</t>
+  </si>
+  <si>
+    <t>78_getDataFromFile</t>
+  </si>
+  <si>
+    <t>Vraca podatke iz fajla</t>
+  </si>
+  <si>
+    <t>78_getLargeFileSize</t>
+  </si>
+  <si>
+    <t>Ispisi velicinu fajla</t>
+  </si>
+  <si>
+    <t>78_printLargeFileName</t>
+  </si>
+  <si>
+    <t>Ispisi ime velikog fajla</t>
+  </si>
+  <si>
+    <t>79_copyAndRenameNewFile</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla u odredjenu putanju i promena imena fajla</t>
+  </si>
+  <si>
+    <t>79_copyFile</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla</t>
+  </si>
+  <si>
+    <t>79_copyFileToPath</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla sa sourcePath u putanju definisanu destinationPath parametrom</t>
+  </si>
+  <si>
+    <t>79_copyFolderToPath</t>
+  </si>
+  <si>
+    <t>Kopiranje foldera sa sourcePath u putanju definisanu destinationPath parametrom</t>
+  </si>
+  <si>
+    <t>79_duplicateFileToPath</t>
+  </si>
+  <si>
+    <t>Napravi kopiju fajla u istoj putanji</t>
+  </si>
+  <si>
+    <t>79_getPathFromFile</t>
+  </si>
+  <si>
+    <t>Vraca putanju fajla</t>
+  </si>
+  <si>
+    <t>79_copyFile1</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla u vise razlicitih lokacija datim u nizu</t>
+  </si>
+  <si>
+    <t>79_copyFile2</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla n puta u odredjenu putanju</t>
+  </si>
+  <si>
+    <t>79_makeNewFile</t>
+  </si>
+  <si>
+    <t>Napravi novi fajl</t>
+  </si>
+  <si>
+    <t>80_updateHttpCodeDescription</t>
+  </si>
+  <si>
+    <t>80_mapErrorCodeToCustomError</t>
+  </si>
+  <si>
+    <t>Mapiranje greske u greske projekta</t>
+  </si>
+  <si>
+    <t>80_makeHttpCodeDescription</t>
+  </si>
+  <si>
+    <t>Sastavi opis html koda</t>
+  </si>
+  <si>
+    <t>80_logQuiniuHtmlError</t>
+  </si>
+  <si>
+    <t>80_getHttpCodeDescription</t>
+  </si>
+  <si>
+    <t>Vraca opis http koda</t>
+  </si>
+  <si>
+    <t>80_getElementFromListByOccurence</t>
+  </si>
+  <si>
+    <t>80_extractHttpCode</t>
+  </si>
+  <si>
+    <t>81_updateQuery</t>
+  </si>
+  <si>
+    <t>Cuvanje korisnika u tabeli</t>
+  </si>
+  <si>
+    <t>81_printElements</t>
+  </si>
+  <si>
+    <t>Ispis elemenata niza</t>
+  </si>
+  <si>
+    <t>81_getXElementsFromList</t>
+  </si>
+  <si>
+    <t>Ekstrakcija nasumicnog elementa iz liste. Koristi se rand() funkcija sa min i max parametrima. Broj elemenata koji se ekstraktuju je odredjen parametrom x</t>
+  </si>
+  <si>
+    <t>81_getPositiveElementsFromList</t>
+  </si>
+  <si>
+    <t>Ekstrakcija nasumicnog pozitivnog elementa iz liste. Koristi se rand() funkcija sa min i max parametrima. Broj elemenata koji se ekstraktuju je odredjen parametrom x</t>
+  </si>
+  <si>
+    <t>81_getNegativeElementsFromList</t>
+  </si>
+  <si>
+    <t>Ekstrakcija nasumicnog negativnog elementa iz liste. Koristi se rand() funkcija sa min i max parametrima. Broj elemenata koji se ekstraktuju je odredjen parametrom x</t>
+  </si>
+  <si>
+    <t>81_getElementsFromListByOccurence</t>
+  </si>
+  <si>
+    <t>Ekstrakcija prvog elementa iz liste koji se pojavljuje x puta</t>
+  </si>
+  <si>
+    <t>81_getSameElementsFromList</t>
+  </si>
+  <si>
+    <t>Ekstrakcija duplikata u datoj listi u vidu nizu</t>
+  </si>
+  <si>
+    <t>82_convertDateToYYY-MM-DDFormat</t>
+  </si>
+  <si>
+    <t>Konverzija datum stringa u format ddmmggg i njegov ispis</t>
+  </si>
+  <si>
+    <t>82_convertDateToYYYYMMDDFormat</t>
+  </si>
+  <si>
+    <t>Konverzija datum stringa u format gggg-mm-dd i njegov ispis</t>
+  </si>
+  <si>
+    <t>82_getElapsedTimeInYYYYMMDDFormat</t>
+  </si>
+  <si>
+    <t>Dobijanje proteklog vremena od datuma u YYYYMMDD formatu</t>
+  </si>
+  <si>
+    <t>82_convertDateToDDMMYYYFormat</t>
+  </si>
+  <si>
+    <t>82_convertDateFromYYYYMMDDtoDD-MM-YYYY</t>
+  </si>
+  <si>
+    <t>Konverzija datuma iz formata ggggmmdd u format dd-mm-gggg i njegov ispis</t>
+  </si>
+  <si>
+    <t>83_convertTimeFromUtcToEpoch</t>
+  </si>
+  <si>
+    <t>Konverzija vremena iz utc vremenskog formata u epoh vremenski format</t>
+  </si>
+  <si>
+    <t>83_updateEntry</t>
+  </si>
+  <si>
+    <t>Azuriranje tabele Event sa novim vremenom. Vrsi se i konverzija vremena iz utc vremenskog formata u epoh vremenski format</t>
+  </si>
+  <si>
+    <t>83_printUtcTime</t>
+  </si>
+  <si>
+    <t>Ispis trenutnog utc vremena</t>
+  </si>
+  <si>
+    <t>83_convertUtcTimetoFormattedString</t>
+  </si>
+  <si>
+    <t>Konverzija utc vremena u formatirani string</t>
+  </si>
+  <si>
+    <t>83_convertTimeFromUtcToEpochSerbianTimezone</t>
+  </si>
+  <si>
+    <t>Ispis utc vremena u vremensku zonu za Srbiju</t>
+  </si>
+  <si>
+    <t>84_listPermutation</t>
+  </si>
+  <si>
+    <t>Permutacija liste</t>
+  </si>
+  <si>
+    <t>84_itemsPermutation</t>
+  </si>
+  <si>
+    <t>Sve permutacije liste u vidu jednog niza</t>
+  </si>
+  <si>
+    <t>84_rearrangeList</t>
+  </si>
+  <si>
+    <t>Nasumicna permutacija liste i njen ispis</t>
+  </si>
+  <si>
+    <t>84_delete_img</t>
+  </si>
+  <si>
+    <t>Brisanje slike iz tabele post_food</t>
+  </si>
+  <si>
+    <t>84_permutationFromThePool</t>
+  </si>
+  <si>
+    <t>Permutacija elemenata iz liste (pool). Funkcija vraca iterator. Moze se specificirati r - velicina permutacije</t>
+  </si>
+  <si>
+    <t>84_nRandomPermutation</t>
+  </si>
+  <si>
+    <t>Vraca N nasumicnih permutacija niza</t>
+  </si>
+  <si>
+    <t>85_extractLatitude</t>
+  </si>
+  <si>
+    <t>Ekstrakcija latitude iz adrese</t>
+  </si>
+  <si>
+    <t>85_extractLongitude</t>
+  </si>
+  <si>
+    <t>Ekstrakcija longitude iz adrese</t>
+  </si>
+  <si>
+    <t>85_plotCoordinates</t>
+  </si>
+  <si>
+    <t>Plotiranje koordinate sa datom latitudom i longitudom</t>
+  </si>
+  <si>
+    <t>85_getCoordinates</t>
+  </si>
+  <si>
+    <t>Ekstrakcija koordinata iz adrese</t>
+  </si>
+  <si>
+    <t>85_setTitleAttribute</t>
+  </si>
+  <si>
+    <t>Postaviti naslov</t>
+  </si>
+  <si>
+    <t>85_extractLatitudeAndLongitudeFromKmlFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija geografske sirine i duzine iz kml fajla</t>
+  </si>
+  <si>
+    <t>85_extractLatitudeAndLongitude</t>
+  </si>
+  <si>
+    <t>Ekstrakcija latitude i longitude iz adrese</t>
+  </si>
+  <si>
+    <t>86_checkAndPrintIfACheckboxIsChecked</t>
+  </si>
+  <si>
+    <t>Provera da li je polje za selekciju sa checkboxName odabran</t>
+  </si>
+  <si>
+    <t>86_toggle</t>
+  </si>
+  <si>
+    <t>86_selectGender</t>
+  </si>
+  <si>
+    <t>Odabrati jedno od polja za selekciju pola. Opcije su 0-zenski, 1-muski, 2-neodredjeno</t>
+  </si>
+  <si>
+    <t>86_selectAnswer</t>
+  </si>
+  <si>
+    <t>Odabrati jedno od polja za selekciju odgovora. Opcije su 0-da, 1-mozda, 2-ne</t>
+  </si>
+  <si>
+    <t>86_getDefaultItem</t>
+  </si>
+  <si>
+    <t>Provera odabrane vrednosti polja za selektovanje</t>
+  </si>
+  <si>
+    <t>86_construct</t>
+  </si>
+  <si>
+    <t>Konstruktor parsera</t>
+  </si>
+  <si>
+    <t>86_checkIfACheckboxIsChecked</t>
+  </si>
+  <si>
+    <t>Provera da li je polje za selekciju izabrano</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage</t>
+  </si>
+  <si>
+    <t>Konverzija niza decimalnog broja u sliku</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage1</t>
+  </si>
+  <si>
+    <t>Konverzija niza brojeva u sliku</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage2</t>
+  </si>
+  <si>
+    <t>Konverzija dva niza decimalnog broja u sliku</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage3</t>
+  </si>
+  <si>
+    <t>Spajanje tri niza u sliku i njihova konverzija u sliku</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage4</t>
+  </si>
+  <si>
+    <t>Vraca sliku napravljenu od niza decimalnih brojeva</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage5</t>
+  </si>
+  <si>
+    <t>Vraca sliku</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage6</t>
+  </si>
+  <si>
+    <t>Konverzija niza</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization</t>
+  </si>
+  <si>
+    <t>Stalna memoizacija na disku</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization1</t>
+  </si>
+  <si>
+    <t>Optimizacija memoizacijom na disku</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization2</t>
+  </si>
+  <si>
+    <t>Privremena memoizacija na disku</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization3</t>
+  </si>
+  <si>
+    <t>Tehnika memoizacije kao vid optimizacije</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization4</t>
+  </si>
+  <si>
+    <t>Cuvanje podataka na disku</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization5</t>
+  </si>
+  <si>
+    <t>Memoizacija</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization6</t>
+  </si>
+  <si>
+    <t>Memoizacija na disku</t>
+  </si>
+  <si>
+    <t>89_get_fieldset_select</t>
+  </si>
+  <si>
+    <t>Vraca jedinstvenu vrednost iz reda rabele gde je select klauzula tacna</t>
+  </si>
+  <si>
+    <t>89_parsingCommandLineArgumentsFromGet</t>
+  </si>
+  <si>
+    <t>Parsiranje argumenata sa komandne linije od GET metode</t>
+  </si>
+  <si>
+    <t>89_parsingCommandLineArguments</t>
+  </si>
+  <si>
+    <t>Parsiranje argumenata sa komandne linije u formatu kljuc vrednost parova</t>
+  </si>
+  <si>
+    <t>89_parseArgs</t>
+  </si>
+  <si>
+    <t>Parsiranje argumenata sa komandne linije u bilo koja od tri slucajeva: sa "--", sa "-" ili bez icega</t>
+  </si>
+  <si>
+    <t>89_initCLIArguments</t>
+  </si>
+  <si>
+    <t>Postavljanje argumenta komandne linije</t>
+  </si>
+  <si>
+    <t>89_initArguments</t>
+  </si>
+  <si>
+    <t>Dohvatanje argumenata sa komandne linije i priprema za njihovu upotrebu</t>
+  </si>
+  <si>
+    <t>90_compressGxFile</t>
+  </si>
+  <si>
+    <t>Kompresija fajla u .gz format</t>
+  </si>
+  <si>
+    <t>90_writeCompressedFile</t>
+  </si>
+  <si>
+    <t>Pisanje u .gz fajl sa imenom filename</t>
+  </si>
+  <si>
+    <t>90_unpack</t>
+  </si>
+  <si>
+    <t>Otvaranje fajla koristeci .gz kompresor</t>
+  </si>
+  <si>
+    <t>90_readGzFileLineByLine</t>
+  </si>
+  <si>
+    <t>Citanje .gz fajla liniju po liniju</t>
+  </si>
+  <si>
+    <t>90_readGzFile</t>
+  </si>
+  <si>
+    <t>Citanje .gz fajla</t>
+  </si>
+  <si>
+    <t>90_gz_get_contents</t>
+  </si>
+  <si>
+    <t>Citanje .gz fajla sa datom putanjom</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST</t>
+  </si>
+  <si>
+    <t>Slanje binarnih podataka POST metodom</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST1</t>
+  </si>
+  <si>
+    <t>Slanje binarnih podataka serijskom konekcijom</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST2</t>
+  </si>
+  <si>
+    <t>Razmena binarnih podataka preko serijske konekcije</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST3</t>
+  </si>
+  <si>
+    <t>Primanje binarnih podataka preko serijske konekcije</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST4</t>
+  </si>
+  <si>
+    <t>Slanje podataka o dogadjaju putem serijske konekcije</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST5</t>
+  </si>
+  <si>
+    <t>Slanje binarnih podataka preko adaptera</t>
+  </si>
+  <si>
+    <t>92_getDataFromTextFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka liniju po liniju iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>92_writeDataToTxtFile</t>
+  </si>
+  <si>
+    <t>Pisanje podataka u tekstualni fajl</t>
+  </si>
+  <si>
+    <t>92_testFileRead</t>
+  </si>
+  <si>
+    <t>Testiranje citanja podataka iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>92_load</t>
+  </si>
+  <si>
+    <t>Dovlaci tekstualni fajl u memoriju</t>
+  </si>
+  <si>
+    <t>92_getFileContents</t>
+  </si>
+  <si>
+    <t>92_getMostCommonWordFromFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija najcesce koriscene reci u tekstualnom fajlu</t>
+  </si>
+  <si>
+    <t>92_getFirstAndLastSentenceFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija prve i poslednje recenice iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>92_getDataFromTextFileStructure</t>
+  </si>
+  <si>
+    <t>Ekstracija informacije iz tekstualnog fajla baziranog na sledecoj strukturi: Datum, Naslov, Tekst:vrednost, Tekst:vrednost, Tekst:vrednost</t>
+  </si>
+  <si>
+    <t>93_findAllNumbersInString</t>
+  </si>
+  <si>
+    <t>Pronalazenje svih brojeva u stringu</t>
+  </si>
+  <si>
+    <t>93_findSubstringPosition</t>
+  </si>
+  <si>
+    <t>Pronalazenje pozicije pod stringa u datom stringu</t>
+  </si>
+  <si>
+    <t>93_findSubstring</t>
+  </si>
+  <si>
+    <t>Pronalazenje pod stringa u datom stringu i ispis ako postoji</t>
+  </si>
+  <si>
+    <t>93_findSubstringPositionIntext</t>
+  </si>
+  <si>
+    <t>Pronalazenje stringa u tekstu</t>
+  </si>
+  <si>
+    <t>93_findStringInText</t>
+  </si>
+  <si>
+    <t>Pronalazenje pozicije stringa u tekstu</t>
+  </si>
+  <si>
+    <t>93_findNumOccurrencesString</t>
+  </si>
+  <si>
+    <t>Pronalazenje koliko puta se substring pojavljuje u stringu</t>
+  </si>
+  <si>
+    <t>94_findTrElementsFromHtml</t>
+  </si>
+  <si>
+    <t>Pronalazenje tr elemenata u html fajlu</t>
+  </si>
+  <si>
+    <t>94_findTdElementsFromHtml</t>
+  </si>
+  <si>
+    <t>Pronalazenje td elemenata u html fajlu</t>
+  </si>
+  <si>
+    <t>94_readingTdElementsFromHTml</t>
+  </si>
+  <si>
+    <t>Parsiranje td elementa iz html fajla</t>
+  </si>
+  <si>
+    <t>94_readingTableElementsFromHtml</t>
+  </si>
+  <si>
+    <t>Citanja elemenata tabele iz html fajla</t>
+  </si>
+  <si>
+    <t>94_ReadingHtmlFile</t>
+  </si>
+  <si>
+    <t>Citanje html fajla</t>
+  </si>
+  <si>
+    <t>94_readingElementsFromJtmlAsArray</t>
+  </si>
+  <si>
+    <t>Vraca html elemente u vidu niza</t>
+  </si>
+  <si>
+    <t>94_getHtmlBody</t>
+  </si>
+  <si>
+    <t>Vraca body sekciju html-a</t>
+  </si>
+  <si>
+    <t>95_calculate</t>
+  </si>
+  <si>
+    <t>Srednja vrednost u nizu</t>
+  </si>
+  <si>
+    <t>95_findSumofColumn</t>
+  </si>
+  <si>
+    <t>Pronalazenje zbira vrednosti u koloni</t>
+  </si>
+  <si>
+    <t>95_findAverageMeanOfArray</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti niza</t>
+  </si>
+  <si>
+    <t>95_findAverageMeanFromColumn</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti od kolone</t>
+  </si>
+  <si>
+    <t>95_deductingAverageMeanFromColumn</t>
+  </si>
+  <si>
+    <t>Oduzimanje srednje vrednosti od kolone iz sql baze</t>
+  </si>
+  <si>
+    <t>95_findAverageSalary</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti kolone za platu</t>
+  </si>
+  <si>
+    <t>95_findAverageValueAcrossTable</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti iz svih celija tabele</t>
+  </si>
+  <si>
+    <t>95_deductingAverageMean</t>
+  </si>
+  <si>
+    <t>96_fileConcatenation</t>
+  </si>
+  <si>
+    <t>Nadovezivanje svih fajlova iz liste fajlova</t>
+  </si>
+  <si>
+    <t>96_fileConcatenationRemoveHeader</t>
+  </si>
+  <si>
+    <t>Nadovezivanje svih fajlova iz liste fajlova pri tom se zaglavlja svakog fajla brisu</t>
+  </si>
+  <si>
+    <t>96_mergingFilesRandomOrder</t>
+  </si>
+  <si>
+    <t>Spajanje fajlova u nasumicnom redu</t>
+  </si>
+  <si>
+    <t>96_pdfFileConcatenation</t>
+  </si>
+  <si>
+    <t>Spajanje pdf fajlova iz liste fajlova</t>
+  </si>
+  <si>
+    <t>96_removeHeaderAndFooterFileMerging</t>
+  </si>
+  <si>
+    <t>Nadovezivanje svih fajlova iz liste fajlova a pritom se brisu zaglavlja i footer</t>
+  </si>
+  <si>
+    <t>96_mergeFileKeepFirstHeaderOnly</t>
+  </si>
+  <si>
+    <t>Nadovezivanje fajlova tako da se cuva samo zaglavlje prvog fajla a ostala zaglavlja se uklanjanju</t>
+  </si>
+  <si>
+    <t>96_stringConcatenation</t>
+  </si>
+  <si>
+    <t>Nadovezivanje stringova iz liste stringova</t>
+  </si>
+  <si>
+    <t>97_insertQueryIntoUrl</t>
+  </si>
+  <si>
+    <t>Ubacivanje upita u url</t>
+  </si>
+  <si>
+    <t>97_getPreviousUrl</t>
+  </si>
+  <si>
+    <t>Vraca prethodni url</t>
+  </si>
+  <si>
+    <t>97_updateUrl</t>
+  </si>
+  <si>
+    <t>Promena url-a</t>
+  </si>
+  <si>
+    <t>97_parseSelectQueryFromUrl</t>
+  </si>
+  <si>
+    <t>Parsiranje select upita iz url-a</t>
+  </si>
+  <si>
+    <t>97_parseQueryFromUrlRegex</t>
+  </si>
+  <si>
+    <t>Parsiranje upita iz url-a po regeksu i ispis rezultata</t>
+  </si>
+  <si>
+    <t>97_parseQueryFromUrl</t>
+  </si>
+  <si>
+    <t>Parsiranje upita iz url-a</t>
+  </si>
+  <si>
+    <t>97_numberOfMethods</t>
+  </si>
+  <si>
+    <t>Vraca broj metoda u projektu</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking</t>
+  </si>
+  <si>
+    <t>Fuzzy match ranking funkcija</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking1</t>
+  </si>
+  <si>
+    <t>Fuzzy match pretrazivanje</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking2</t>
+  </si>
+  <si>
+    <t>Fuzzy match pretrazivanje slicnih recenica</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking3</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking4</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking5</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking6</t>
+  </si>
+  <si>
+    <t>99_convertExcelToHtml</t>
+  </si>
+  <si>
+    <t>Konverzija excel fajla tako da je izlaz funkcije html fajl</t>
+  </si>
+  <si>
+    <t>99_convertPdfToHtml</t>
+  </si>
+  <si>
+    <t>Prebacivanje pdf fajl u html fajl</t>
+  </si>
+  <si>
+    <t>99_convertWordToHtml</t>
+  </si>
+  <si>
+    <t>Konverzija word fajla tako da je izlaz funkcije html fajl</t>
+  </si>
+  <si>
+    <t>99_findContext</t>
+  </si>
+  <si>
+    <t>Pronalazenje konteksta</t>
+  </si>
+  <si>
+    <t>99_getReport</t>
+  </si>
+  <si>
+    <t>Vraca izvestaj u vidu html fajla</t>
+  </si>
+  <si>
+    <t>99_returnHtmlFile</t>
+  </si>
+  <si>
+    <t>Vraca novi html file</t>
+  </si>
+  <si>
+    <t>99_sendLetter</t>
+  </si>
+  <si>
+    <t>Slanje poste u obliku html-a. Funkcija vraca html</t>
+  </si>
+  <si>
+    <t>100_numberOfTestedFunctions</t>
+  </si>
+  <si>
+    <t>Vraca broj metoda u funkciji</t>
+  </si>
+  <si>
+    <t>100_writingCsvFileFromArray</t>
+  </si>
+  <si>
+    <t>Kreiranje csv fajla iz niza</t>
+  </si>
+  <si>
+    <t>100_readingCsvFileSplFileObject</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla koristeci SplFileObject klasu</t>
+  </si>
+  <si>
+    <t>100_readingCsvFileIntoArray</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla u niz</t>
+  </si>
+  <si>
+    <t>100_readingCsvFileArrayMap</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla u mapu niza</t>
+  </si>
+  <si>
+    <t>100_readingCsvFile</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla i ispis</t>
+  </si>
+  <si>
+    <t>100_parsingCsvFileToCustomClass</t>
+  </si>
+  <si>
+    <t>Parsiranje csv fajla u posebnu klasu</t>
+  </si>
+  <si>
+    <t>ispis pregleda modela</t>
+  </si>
+  <si>
+    <t>jedinstveni elementi</t>
+  </si>
+  <si>
+    <t>ekstrakcija podataka iz html sadrzaja</t>
+  </si>
+  <si>
+    <t>toplotna mapa 3D koordinata</t>
+  </si>
+  <si>
+    <t>uzeti sve roditelje od xml cvora</t>
+  </si>
+  <si>
+    <t>kako ekstraktovati zip fajl rekurzivno</t>
+  </si>
+  <si>
+    <t>podvuci tekst u nazivu vidzeta</t>
+  </si>
+  <si>
+    <t>ekstrakcija velikih fajlova</t>
+  </si>
+  <si>
+    <t>kopiranje fajla u odredjenu putanju</t>
+  </si>
+  <si>
+    <t>uzeti opis http status koda</t>
+  </si>
+  <si>
+    <t>nasumicno ekstrahovati iks elemenata iz liste</t>
+  </si>
+  <si>
+    <t>konvertuj datuma u obliku stringa u oblik ggggmmdd</t>
+  </si>
+  <si>
+    <t>konvertuj utc vremena u epoh vreme</t>
+  </si>
+  <si>
+    <t>sve permutacije liste</t>
+  </si>
+  <si>
+    <t>ekstrakcija latitude i longitude od dobijenog unosa</t>
+  </si>
+  <si>
+    <t>konverzija uin8 niza u sliku</t>
+  </si>
+  <si>
+    <t>pamcenje na disku - stalno skladiste</t>
+  </si>
+  <si>
+    <t>parsiranja argumenata sa komandne linije</t>
+  </si>
+  <si>
+    <t>kako citati sadrzaj .gz kompresovanog fajla</t>
+  </si>
+  <si>
+    <t>slanje binarnog podataka preko serijske konekcije</t>
+  </si>
+  <si>
+    <t>ekstrakcija podataka iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>pozicija pod stringova u stringu</t>
+  </si>
+  <si>
+    <t>citanje elemenata from html-a &lt;td&gt;</t>
+  </si>
+  <si>
+    <t>oduzimanje srednje vrednosti od svake kolone</t>
+  </si>
+  <si>
+    <t>nadovezi nekoliko fajlova izbrisi linije zaglavlja</t>
+  </si>
+  <si>
+    <t>parsiraj string upit u urla</t>
+  </si>
+  <si>
+    <t>fuzzy match ranking</t>
+  </si>
+  <si>
+    <t>izlaz html fajla</t>
+  </si>
+  <si>
+    <t>kako citati .csv fajl na efikasan nacin</t>
+  </si>
+  <si>
+    <t>71_getModelInfo_</t>
+  </si>
+  <si>
+    <t>72_findUniqueElements</t>
+  </si>
+  <si>
+    <t>Azuriranje opisa http koda</t>
+  </si>
+  <si>
+    <t>Ispisuje kuiniu html kod</t>
+  </si>
+  <si>
+    <t>Uzima http koda iz dobijenog odgovora</t>
+  </si>
+  <si>
+    <t>kako proveriti da li je polje za selekciju selektovano</t>
+  </si>
+  <si>
+    <t>Ako je odabrano polje za selekciju source odaberi i sva polja od x</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>Funkcija za rangiranje</t>
+  </si>
+  <si>
+    <t>Funkcija koja pretrazuje podatke iz klase Automobil koristeci fuzzy metode</t>
+  </si>
+  <si>
+    <t>Pronalazenje najkoriscenijeg slova</t>
+  </si>
+  <si>
+    <t>Azuriranje tabele dogadjaj sa novim datumima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2308,14 +3595,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2362,7 +3657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2394,9 +3689,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2428,6 +3741,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2603,25 +3934,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F350" sqref="F350"/>
+    <sheetView tabSelected="1" topLeftCell="B518" workbookViewId="0">
+      <selection activeCell="F551" sqref="F551"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.296875" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="129.8984375" customWidth="1"/>
+    <col min="3" max="3" width="49.09765625" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" customWidth="1"/>
+    <col min="5" max="5" width="106.8984375" customWidth="1"/>
     <col min="6" max="6" width="17.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +3972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2681,7 +4012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2741,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2761,7 +4092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2781,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2821,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2861,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +4212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2901,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +4252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3041,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3061,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -3101,7 +4432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3241,7 +4572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -3261,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3281,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -3301,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -3341,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3361,7 +4692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -3401,7 +4732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3421,7 +4752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -3441,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -3481,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -3501,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -3521,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -3541,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +4892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -3581,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -3601,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -3621,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -3641,7 +4972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -3661,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -3701,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -3721,7 +5052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -3741,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -3761,7 +5092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -3781,7 +5112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -3821,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -3841,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -3861,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -3881,7 +5212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -3901,7 +5232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -3921,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -3961,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -3981,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -4001,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -4021,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -4061,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +5412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -4101,7 +5432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -4121,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -4141,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -4161,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -4181,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -4201,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -4241,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -4261,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -4281,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -4301,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -4321,7 +5652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -4341,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -4361,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -4381,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -4401,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -4421,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -4441,7 +5772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -4461,7 +5792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -4481,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -4501,7 +5832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -4521,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -4541,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -4561,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -4581,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -4601,7 +5932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -4621,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -4641,7 +5972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -4681,7 +6012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -4701,7 +6032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -4721,7 +6052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -4741,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -4761,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -4781,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -4801,7 +6132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -4821,7 +6152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -4841,7 +6172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -4861,7 +6192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -4881,7 +6212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -4901,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -4921,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -4941,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -4961,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -4981,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -5001,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -5021,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
@@ -5061,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -5081,7 +6412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +6432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -5121,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -5141,7 +6472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -5161,7 +6492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -5181,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -5201,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -5221,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -5241,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -5261,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -5281,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -5301,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -5321,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -5341,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -5361,7 +6692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -5381,7 +6712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -5401,7 +6732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
@@ -5421,7 +6752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -5441,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -5461,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -5481,7 +6812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -5501,7 +6832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
@@ -5521,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -5541,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -5561,7 +6892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -5581,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -5601,7 +6932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -5621,7 +6952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -5641,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
@@ -5661,7 +6992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>6</v>
       </c>
@@ -5681,7 +7012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -5701,7 +7032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
@@ -5721,7 +7052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
@@ -5741,7 +7072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
@@ -5761,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -5781,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>6</v>
       </c>
@@ -5801,7 +7132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -5821,7 +7152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
@@ -5841,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -5861,7 +7192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -5881,7 +7212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -5901,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -5921,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -5941,7 +7272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>6</v>
       </c>
@@ -5961,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -5981,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +7332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -6021,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -6041,7 +7372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>6</v>
       </c>
@@ -6061,7 +7392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -6081,7 +7412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -6101,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>6</v>
       </c>
@@ -6121,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>6</v>
       </c>
@@ -6141,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>6</v>
       </c>
@@ -6161,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -6181,7 +7512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>6</v>
       </c>
@@ -6201,7 +7532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>6</v>
       </c>
@@ -6221,7 +7552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -6241,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -6261,7 +7592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>6</v>
       </c>
@@ -6281,7 +7612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
@@ -6301,7 +7632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -6321,7 +7652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -6341,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
@@ -6361,7 +7692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>6</v>
       </c>
@@ -6381,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
@@ -6401,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -6421,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -6441,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>6</v>
       </c>
@@ -6461,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>6</v>
       </c>
@@ -6481,7 +7812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -6501,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>6</v>
       </c>
@@ -6521,7 +7852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -6541,7 +7872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -6561,7 +7892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -6581,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
@@ -6601,7 +7932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>6</v>
       </c>
@@ -6621,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>6</v>
       </c>
@@ -6641,7 +7972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>6</v>
       </c>
@@ -6661,7 +7992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
@@ -6681,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>6</v>
       </c>
@@ -6701,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>6</v>
       </c>
@@ -6721,7 +8052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
@@ -6741,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>6</v>
       </c>
@@ -6761,7 +8092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>6</v>
       </c>
@@ -6781,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>6</v>
       </c>
@@ -6801,7 +8132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
@@ -6821,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -6841,7 +8172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
@@ -6861,7 +8192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>6</v>
       </c>
@@ -6881,7 +8212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>6</v>
       </c>
@@ -6901,7 +8232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>6</v>
       </c>
@@ -6921,7 +8252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>6</v>
       </c>
@@ -6941,7 +8272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
@@ -6961,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>6</v>
       </c>
@@ -6981,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>6</v>
       </c>
@@ -7001,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>6</v>
       </c>
@@ -7021,7 +8352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
@@ -7041,7 +8372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -7061,7 +8392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>6</v>
       </c>
@@ -7081,7 +8412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -7101,7 +8432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>6</v>
       </c>
@@ -7121,7 +8452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>6</v>
       </c>
@@ -7141,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>6</v>
       </c>
@@ -7161,7 +8492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>6</v>
       </c>
@@ -7181,7 +8512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>6</v>
       </c>
@@ -7201,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>6</v>
       </c>
@@ -7221,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>6</v>
       </c>
@@ -7241,7 +8572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>6</v>
       </c>
@@ -7261,7 +8592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>6</v>
       </c>
@@ -7281,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -7301,7 +8632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -7321,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>6</v>
       </c>
@@ -7341,7 +8672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -7361,7 +8692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>6</v>
       </c>
@@ -7381,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>6</v>
       </c>
@@ -7401,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>6</v>
       </c>
@@ -7421,7 +8752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>6</v>
       </c>
@@ -7441,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>6</v>
       </c>
@@ -7461,7 +8792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -7481,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>6</v>
       </c>
@@ -7501,7 +8832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>6</v>
       </c>
@@ -7521,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -7541,7 +8872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>6</v>
       </c>
@@ -7561,7 +8892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -7581,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
@@ -7601,7 +8932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>6</v>
       </c>
@@ -7641,7 +8972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -7661,7 +8992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>6</v>
       </c>
@@ -7681,7 +9012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>6</v>
       </c>
@@ -7701,7 +9032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>6</v>
       </c>
@@ -7721,7 +9052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>6</v>
       </c>
@@ -7741,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>6</v>
       </c>
@@ -7761,7 +9092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>6</v>
       </c>
@@ -7781,7 +9112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>6</v>
       </c>
@@ -7801,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>6</v>
       </c>
@@ -7821,7 +9152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>6</v>
       </c>
@@ -7841,7 +9172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>6</v>
       </c>
@@ -7861,7 +9192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>6</v>
       </c>
@@ -7881,7 +9212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>6</v>
       </c>
@@ -7901,7 +9232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>6</v>
       </c>
@@ -7921,7 +9252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -7941,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>6</v>
       </c>
@@ -7961,7 +9292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>6</v>
       </c>
@@ -7981,7 +9312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>6</v>
       </c>
@@ -8001,7 +9332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>6</v>
       </c>
@@ -8021,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>6</v>
       </c>
@@ -8041,7 +9372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>6</v>
       </c>
@@ -8061,7 +9392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>6</v>
       </c>
@@ -8081,7 +9412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>6</v>
       </c>
@@ -8101,7 +9432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>6</v>
       </c>
@@ -8121,7 +9452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>6</v>
       </c>
@@ -8141,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>6</v>
       </c>
@@ -8161,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>6</v>
       </c>
@@ -8181,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>6</v>
       </c>
@@ -8201,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>6</v>
       </c>
@@ -8221,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>6</v>
       </c>
@@ -8241,7 +9572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>6</v>
       </c>
@@ -8261,7 +9592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -8281,7 +9612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -8301,7 +9632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -8321,7 +9652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -8341,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -8361,7 +9692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -8381,7 +9712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -8401,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -8421,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -8441,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -8461,7 +9792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -8481,7 +9812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -8501,7 +9832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>6</v>
       </c>
@@ -8521,7 +9852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>6</v>
       </c>
@@ -8541,7 +9872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>6</v>
       </c>
@@ -8561,7 +9892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>6</v>
       </c>
@@ -8581,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +9932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>6</v>
       </c>
@@ -8621,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>6</v>
       </c>
@@ -8641,7 +9972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>6</v>
       </c>
@@ -8661,7 +9992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>6</v>
       </c>
@@ -8681,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>6</v>
       </c>
@@ -8701,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>6</v>
       </c>
@@ -8721,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>6</v>
       </c>
@@ -8741,7 +10072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>6</v>
       </c>
@@ -8761,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>6</v>
       </c>
@@ -8781,7 +10112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>6</v>
       </c>
@@ -8801,7 +10132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>6</v>
       </c>
@@ -8821,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>6</v>
       </c>
@@ -8841,7 +10172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>6</v>
       </c>
@@ -8861,7 +10192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>6</v>
       </c>
@@ -8881,7 +10212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>6</v>
       </c>
@@ -8901,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>6</v>
       </c>
@@ -8921,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>6</v>
       </c>
@@ -8941,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>6</v>
       </c>
@@ -8961,7 +10292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>6</v>
       </c>
@@ -8981,7 +10312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>6</v>
       </c>
@@ -9001,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>6</v>
       </c>
@@ -9021,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>6</v>
       </c>
@@ -9041,7 +10372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>6</v>
       </c>
@@ -9061,7 +10392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>6</v>
       </c>
@@ -9081,7 +10412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>6</v>
       </c>
@@ -9101,7 +10432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>6</v>
       </c>
@@ -9121,7 +10452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>6</v>
       </c>
@@ -9141,7 +10472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>6</v>
       </c>
@@ -9161,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>6</v>
       </c>
@@ -9181,7 +10512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>6</v>
       </c>
@@ -9201,7 +10532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>6</v>
       </c>
@@ -9221,7 +10552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>6</v>
       </c>
@@ -9241,7 +10572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>6</v>
       </c>
@@ -9261,7 +10592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>6</v>
       </c>
@@ -9281,7 +10612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>6</v>
       </c>
@@ -9301,7 +10632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>6</v>
       </c>
@@ -9321,7 +10652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>6</v>
       </c>
@@ -9341,7 +10672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>6</v>
       </c>
@@ -9361,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>6</v>
       </c>
@@ -9381,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>6</v>
       </c>
@@ -9401,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>6</v>
       </c>
@@ -9421,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>6</v>
       </c>
@@ -9441,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>6</v>
       </c>
@@ -9461,7 +10792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>6</v>
       </c>
@@ -9481,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>6</v>
       </c>
@@ -9501,7 +10832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>6</v>
       </c>
@@ -9521,7 +10852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>6</v>
       </c>
@@ -9541,7 +10872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>6</v>
       </c>
@@ -9561,7 +10892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>6</v>
       </c>
@@ -9581,7 +10912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>6</v>
       </c>
@@ -9601,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>6</v>
       </c>
@@ -9619,6 +10950,4011 @@
       </c>
       <c r="F350" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" s="1">
+        <v>71</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E351" t="s">
+        <v>741</v>
+      </c>
+      <c r="F351" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" s="1">
+        <v>71</v>
+      </c>
+      <c r="C352" t="s">
+        <v>742</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E352" t="s">
+        <v>743</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B353" s="1">
+        <v>71</v>
+      </c>
+      <c r="C353" t="s">
+        <v>744</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E353" t="s">
+        <v>745</v>
+      </c>
+      <c r="F353" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" s="1">
+        <v>71</v>
+      </c>
+      <c r="C354" t="s">
+        <v>746</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E354" t="s">
+        <v>747</v>
+      </c>
+      <c r="F354" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B355" s="1">
+        <v>71</v>
+      </c>
+      <c r="C355" t="s">
+        <v>748</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E355" t="s">
+        <v>749</v>
+      </c>
+      <c r="F355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" s="1">
+        <v>71</v>
+      </c>
+      <c r="C356" t="s">
+        <v>750</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E356" t="s">
+        <v>751</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" s="1">
+        <v>72</v>
+      </c>
+      <c r="C357" t="s">
+        <v>752</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E357" t="s">
+        <v>753</v>
+      </c>
+      <c r="F357" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="1">
+        <v>72</v>
+      </c>
+      <c r="C358" t="s">
+        <v>754</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E358" t="s">
+        <v>755</v>
+      </c>
+      <c r="F358" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="1">
+        <v>72</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E359" t="s">
+        <v>756</v>
+      </c>
+      <c r="F359" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" s="1">
+        <v>72</v>
+      </c>
+      <c r="C360" t="s">
+        <v>757</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E360" t="s">
+        <v>758</v>
+      </c>
+      <c r="F360" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="1">
+        <v>72</v>
+      </c>
+      <c r="C361" t="s">
+        <v>759</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E361" t="s">
+        <v>760</v>
+      </c>
+      <c r="F361" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B362" s="1">
+        <v>72</v>
+      </c>
+      <c r="C362" t="s">
+        <v>761</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E362" t="s">
+        <v>762</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" s="1">
+        <v>72</v>
+      </c>
+      <c r="C363" t="s">
+        <v>763</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E363" t="s">
+        <v>764</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" s="1">
+        <v>73</v>
+      </c>
+      <c r="C364" t="s">
+        <v>765</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E364" t="s">
+        <v>766</v>
+      </c>
+      <c r="F364" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="1">
+        <v>73</v>
+      </c>
+      <c r="C365" t="s">
+        <v>767</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E365" t="s">
+        <v>768</v>
+      </c>
+      <c r="F365" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" s="1">
+        <v>73</v>
+      </c>
+      <c r="C366" t="s">
+        <v>769</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E366" t="s">
+        <v>770</v>
+      </c>
+      <c r="F366" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" s="1">
+        <v>73</v>
+      </c>
+      <c r="C367" t="s">
+        <v>771</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E367" t="s">
+        <v>772</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B368" s="1">
+        <v>73</v>
+      </c>
+      <c r="C368" t="s">
+        <v>773</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E368" t="s">
+        <v>774</v>
+      </c>
+      <c r="F368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" s="1">
+        <v>73</v>
+      </c>
+      <c r="C369" t="s">
+        <v>775</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E369" t="s">
+        <v>776</v>
+      </c>
+      <c r="F369" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" s="1">
+        <v>73</v>
+      </c>
+      <c r="C370" t="s">
+        <v>777</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E370" t="s">
+        <v>778</v>
+      </c>
+      <c r="F370" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" s="1">
+        <v>74</v>
+      </c>
+      <c r="C371" t="s">
+        <v>779</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E371" t="s">
+        <v>780</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" s="1">
+        <v>74</v>
+      </c>
+      <c r="C372" t="s">
+        <v>781</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E372" t="s">
+        <v>782</v>
+      </c>
+      <c r="F372" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B373" s="1">
+        <v>74</v>
+      </c>
+      <c r="C373" t="s">
+        <v>783</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E373" t="s">
+        <v>784</v>
+      </c>
+      <c r="F373" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="1">
+        <v>74</v>
+      </c>
+      <c r="C374" t="s">
+        <v>785</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E374" t="s">
+        <v>786</v>
+      </c>
+      <c r="F374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="1">
+        <v>74</v>
+      </c>
+      <c r="C375" t="s">
+        <v>787</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E375" t="s">
+        <v>788</v>
+      </c>
+      <c r="F375" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" s="1">
+        <v>74</v>
+      </c>
+      <c r="C376" t="s">
+        <v>789</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E376" t="s">
+        <v>790</v>
+      </c>
+      <c r="F376" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" s="1">
+        <v>75</v>
+      </c>
+      <c r="C377" t="s">
+        <v>791</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E377" t="s">
+        <v>792</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" s="1">
+        <v>75</v>
+      </c>
+      <c r="C378" t="s">
+        <v>793</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E378" t="s">
+        <v>794</v>
+      </c>
+      <c r="F378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" s="1">
+        <v>75</v>
+      </c>
+      <c r="C379" t="s">
+        <v>795</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E379" t="s">
+        <v>796</v>
+      </c>
+      <c r="F379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" s="1">
+        <v>75</v>
+      </c>
+      <c r="C380" t="s">
+        <v>797</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E380" t="s">
+        <v>798</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" s="1">
+        <v>75</v>
+      </c>
+      <c r="C381" t="s">
+        <v>799</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E381" t="s">
+        <v>800</v>
+      </c>
+      <c r="F381" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" s="1">
+        <v>75</v>
+      </c>
+      <c r="C382" t="s">
+        <v>801</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E382" t="s">
+        <v>802</v>
+      </c>
+      <c r="F382" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="1">
+        <v>75</v>
+      </c>
+      <c r="C383" t="s">
+        <v>803</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E383" t="s">
+        <v>804</v>
+      </c>
+      <c r="F383" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" s="1">
+        <v>76</v>
+      </c>
+      <c r="C384" t="s">
+        <v>805</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E384" t="s">
+        <v>806</v>
+      </c>
+      <c r="F384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" s="1">
+        <v>76</v>
+      </c>
+      <c r="C385" t="s">
+        <v>807</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E385" t="s">
+        <v>808</v>
+      </c>
+      <c r="F385" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="1">
+        <v>76</v>
+      </c>
+      <c r="C386" t="s">
+        <v>809</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E386" t="s">
+        <v>810</v>
+      </c>
+      <c r="F386" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" s="1">
+        <v>76</v>
+      </c>
+      <c r="C387" t="s">
+        <v>811</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E387" t="s">
+        <v>812</v>
+      </c>
+      <c r="F387" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" s="1">
+        <v>76</v>
+      </c>
+      <c r="C388" t="s">
+        <v>813</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E388" t="s">
+        <v>814</v>
+      </c>
+      <c r="F388" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" s="1">
+        <v>76</v>
+      </c>
+      <c r="C389" t="s">
+        <v>815</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E389" t="s">
+        <v>816</v>
+      </c>
+      <c r="F389" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" s="1">
+        <v>77</v>
+      </c>
+      <c r="C390" t="s">
+        <v>817</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E390" t="s">
+        <v>818</v>
+      </c>
+      <c r="F390" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" s="1">
+        <v>77</v>
+      </c>
+      <c r="C391" t="s">
+        <v>819</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E391" t="s">
+        <v>820</v>
+      </c>
+      <c r="F391" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="1">
+        <v>77</v>
+      </c>
+      <c r="C392" t="s">
+        <v>821</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E392" t="s">
+        <v>822</v>
+      </c>
+      <c r="F392" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="1">
+        <v>77</v>
+      </c>
+      <c r="C393" t="s">
+        <v>823</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E393" t="s">
+        <v>824</v>
+      </c>
+      <c r="F393" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" s="1">
+        <v>77</v>
+      </c>
+      <c r="C394" t="s">
+        <v>825</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E394" t="s">
+        <v>826</v>
+      </c>
+      <c r="F394" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="1">
+        <v>77</v>
+      </c>
+      <c r="C395" t="s">
+        <v>827</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E395" t="s">
+        <v>828</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" s="1">
+        <v>78</v>
+      </c>
+      <c r="C396" t="s">
+        <v>829</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E396" t="s">
+        <v>830</v>
+      </c>
+      <c r="F396" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="1">
+        <v>78</v>
+      </c>
+      <c r="C397" t="s">
+        <v>831</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E397" t="s">
+        <v>832</v>
+      </c>
+      <c r="F397" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" s="1">
+        <v>78</v>
+      </c>
+      <c r="C398" t="s">
+        <v>833</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E398" t="s">
+        <v>834</v>
+      </c>
+      <c r="F398" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" s="1">
+        <v>78</v>
+      </c>
+      <c r="C399" t="s">
+        <v>835</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E399" t="s">
+        <v>836</v>
+      </c>
+      <c r="F399" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" s="1">
+        <v>78</v>
+      </c>
+      <c r="C400" t="s">
+        <v>837</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E400" t="s">
+        <v>838</v>
+      </c>
+      <c r="F400" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="1">
+        <v>78</v>
+      </c>
+      <c r="C401" t="s">
+        <v>839</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E401" t="s">
+        <v>840</v>
+      </c>
+      <c r="F401" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" s="1">
+        <v>79</v>
+      </c>
+      <c r="C402" t="s">
+        <v>841</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E402" t="s">
+        <v>842</v>
+      </c>
+      <c r="F402" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B403" s="1">
+        <v>79</v>
+      </c>
+      <c r="C403" t="s">
+        <v>843</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E403" t="s">
+        <v>844</v>
+      </c>
+      <c r="F403" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" s="1">
+        <v>79</v>
+      </c>
+      <c r="C404" t="s">
+        <v>845</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E404" t="s">
+        <v>846</v>
+      </c>
+      <c r="F404" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B405" s="1">
+        <v>79</v>
+      </c>
+      <c r="C405" t="s">
+        <v>847</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E405" t="s">
+        <v>848</v>
+      </c>
+      <c r="F405" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" s="1">
+        <v>79</v>
+      </c>
+      <c r="C406" t="s">
+        <v>849</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E406" t="s">
+        <v>850</v>
+      </c>
+      <c r="F406" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" s="1">
+        <v>79</v>
+      </c>
+      <c r="C407" t="s">
+        <v>851</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E407" t="s">
+        <v>852</v>
+      </c>
+      <c r="F407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B408" s="1">
+        <v>79</v>
+      </c>
+      <c r="C408" t="s">
+        <v>853</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E408" t="s">
+        <v>854</v>
+      </c>
+      <c r="F408" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" s="1">
+        <v>79</v>
+      </c>
+      <c r="C409" t="s">
+        <v>855</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E409" t="s">
+        <v>856</v>
+      </c>
+      <c r="F409" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" s="1">
+        <v>79</v>
+      </c>
+      <c r="C410" t="s">
+        <v>857</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E410" t="s">
+        <v>858</v>
+      </c>
+      <c r="F410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" s="1">
+        <v>80</v>
+      </c>
+      <c r="C411" t="s">
+        <v>859</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F411" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" s="1">
+        <v>80</v>
+      </c>
+      <c r="C412" t="s">
+        <v>860</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E412" t="s">
+        <v>861</v>
+      </c>
+      <c r="F412" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" s="1">
+        <v>80</v>
+      </c>
+      <c r="C413" t="s">
+        <v>862</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E413" t="s">
+        <v>863</v>
+      </c>
+      <c r="F413" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" s="1">
+        <v>80</v>
+      </c>
+      <c r="C414" t="s">
+        <v>864</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F414" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" s="1">
+        <v>80</v>
+      </c>
+      <c r="C415" t="s">
+        <v>865</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E415" t="s">
+        <v>866</v>
+      </c>
+      <c r="F415" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" s="1">
+        <v>80</v>
+      </c>
+      <c r="C416" t="s">
+        <v>867</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E416" t="s">
+        <v>766</v>
+      </c>
+      <c r="F416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" s="1">
+        <v>80</v>
+      </c>
+      <c r="C417" t="s">
+        <v>868</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F417" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" s="1">
+        <v>81</v>
+      </c>
+      <c r="C418" t="s">
+        <v>869</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E418" t="s">
+        <v>870</v>
+      </c>
+      <c r="F418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="1">
+        <v>81</v>
+      </c>
+      <c r="C419" t="s">
+        <v>871</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E419" t="s">
+        <v>872</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" s="1">
+        <v>81</v>
+      </c>
+      <c r="C420" t="s">
+        <v>873</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E420" t="s">
+        <v>874</v>
+      </c>
+      <c r="F420" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421" s="1">
+        <v>81</v>
+      </c>
+      <c r="C421" t="s">
+        <v>875</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E421" t="s">
+        <v>876</v>
+      </c>
+      <c r="F421" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B422" s="1">
+        <v>81</v>
+      </c>
+      <c r="C422" t="s">
+        <v>877</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E422" t="s">
+        <v>878</v>
+      </c>
+      <c r="F422" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" s="1">
+        <v>81</v>
+      </c>
+      <c r="C423" t="s">
+        <v>879</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E423" t="s">
+        <v>880</v>
+      </c>
+      <c r="F423" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B424" s="1">
+        <v>81</v>
+      </c>
+      <c r="C424" t="s">
+        <v>881</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E424" t="s">
+        <v>882</v>
+      </c>
+      <c r="F424" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" s="1">
+        <v>82</v>
+      </c>
+      <c r="C425" t="s">
+        <v>883</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E425" t="s">
+        <v>884</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" s="1">
+        <v>82</v>
+      </c>
+      <c r="C426" t="s">
+        <v>885</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E426" t="s">
+        <v>886</v>
+      </c>
+      <c r="F426" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" s="1">
+        <v>82</v>
+      </c>
+      <c r="C427" t="s">
+        <v>887</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E427" t="s">
+        <v>888</v>
+      </c>
+      <c r="F427" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" s="1">
+        <v>82</v>
+      </c>
+      <c r="C428" t="s">
+        <v>889</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E428" t="s">
+        <v>884</v>
+      </c>
+      <c r="F428" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="1">
+        <v>82</v>
+      </c>
+      <c r="C429" t="s">
+        <v>890</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E429" t="s">
+        <v>891</v>
+      </c>
+      <c r="F429" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" s="1">
+        <v>83</v>
+      </c>
+      <c r="C430" t="s">
+        <v>892</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E430" t="s">
+        <v>893</v>
+      </c>
+      <c r="F430" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="1">
+        <v>83</v>
+      </c>
+      <c r="C431" t="s">
+        <v>894</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E431" t="s">
+        <v>895</v>
+      </c>
+      <c r="F431" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B432" s="1">
+        <v>83</v>
+      </c>
+      <c r="C432" t="s">
+        <v>896</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E432" t="s">
+        <v>897</v>
+      </c>
+      <c r="F432" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" s="1">
+        <v>83</v>
+      </c>
+      <c r="C433" t="s">
+        <v>898</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E433" t="s">
+        <v>899</v>
+      </c>
+      <c r="F433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" s="1">
+        <v>83</v>
+      </c>
+      <c r="C434" t="s">
+        <v>900</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E434" t="s">
+        <v>901</v>
+      </c>
+      <c r="F434" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" s="1">
+        <v>84</v>
+      </c>
+      <c r="C435" t="s">
+        <v>902</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E435" t="s">
+        <v>903</v>
+      </c>
+      <c r="F435" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="1">
+        <v>84</v>
+      </c>
+      <c r="C436" t="s">
+        <v>904</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E436" t="s">
+        <v>905</v>
+      </c>
+      <c r="F436" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="1">
+        <v>84</v>
+      </c>
+      <c r="C437" t="s">
+        <v>906</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E437" t="s">
+        <v>907</v>
+      </c>
+      <c r="F437" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="1">
+        <v>84</v>
+      </c>
+      <c r="C438" t="s">
+        <v>908</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E438" t="s">
+        <v>909</v>
+      </c>
+      <c r="F438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="1">
+        <v>84</v>
+      </c>
+      <c r="C439" t="s">
+        <v>910</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E439" t="s">
+        <v>911</v>
+      </c>
+      <c r="F439" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" s="1">
+        <v>84</v>
+      </c>
+      <c r="C440" t="s">
+        <v>912</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E440" t="s">
+        <v>913</v>
+      </c>
+      <c r="F440" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" s="1">
+        <v>85</v>
+      </c>
+      <c r="C441" t="s">
+        <v>914</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E441" t="s">
+        <v>915</v>
+      </c>
+      <c r="F441" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B442" s="1">
+        <v>85</v>
+      </c>
+      <c r="C442" t="s">
+        <v>916</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E442" t="s">
+        <v>917</v>
+      </c>
+      <c r="F442" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" s="1">
+        <v>85</v>
+      </c>
+      <c r="C443" t="s">
+        <v>918</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E443" t="s">
+        <v>919</v>
+      </c>
+      <c r="F443" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B444" s="1">
+        <v>85</v>
+      </c>
+      <c r="C444" t="s">
+        <v>920</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E444" t="s">
+        <v>921</v>
+      </c>
+      <c r="F444" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B445" s="1">
+        <v>85</v>
+      </c>
+      <c r="C445" t="s">
+        <v>922</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E445" t="s">
+        <v>923</v>
+      </c>
+      <c r="F445" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" s="1">
+        <v>85</v>
+      </c>
+      <c r="C446" t="s">
+        <v>924</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E446" t="s">
+        <v>925</v>
+      </c>
+      <c r="F446" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" s="1">
+        <v>85</v>
+      </c>
+      <c r="C447" t="s">
+        <v>926</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E447" t="s">
+        <v>927</v>
+      </c>
+      <c r="F447" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" s="1">
+        <v>86</v>
+      </c>
+      <c r="C448" t="s">
+        <v>928</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E448" t="s">
+        <v>929</v>
+      </c>
+      <c r="F448" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" s="1">
+        <v>86</v>
+      </c>
+      <c r="C449" t="s">
+        <v>930</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F449" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" s="1">
+        <v>86</v>
+      </c>
+      <c r="C450" t="s">
+        <v>931</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E450" t="s">
+        <v>932</v>
+      </c>
+      <c r="F450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B451" s="1">
+        <v>86</v>
+      </c>
+      <c r="C451" t="s">
+        <v>933</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E451" t="s">
+        <v>934</v>
+      </c>
+      <c r="F451" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B452" s="1">
+        <v>86</v>
+      </c>
+      <c r="C452" t="s">
+        <v>935</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E452" t="s">
+        <v>936</v>
+      </c>
+      <c r="F452" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453" s="1">
+        <v>86</v>
+      </c>
+      <c r="C453" t="s">
+        <v>937</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E453" t="s">
+        <v>938</v>
+      </c>
+      <c r="F453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B454" s="1">
+        <v>86</v>
+      </c>
+      <c r="C454" t="s">
+        <v>939</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E454" t="s">
+        <v>940</v>
+      </c>
+      <c r="F454" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B455" s="1">
+        <v>87</v>
+      </c>
+      <c r="C455" t="s">
+        <v>941</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E455" t="s">
+        <v>942</v>
+      </c>
+      <c r="F455" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="1">
+        <v>87</v>
+      </c>
+      <c r="C456" t="s">
+        <v>943</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E456" t="s">
+        <v>944</v>
+      </c>
+      <c r="F456" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" s="1">
+        <v>87</v>
+      </c>
+      <c r="C457" t="s">
+        <v>945</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E457" t="s">
+        <v>946</v>
+      </c>
+      <c r="F457" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B458" s="1">
+        <v>87</v>
+      </c>
+      <c r="C458" t="s">
+        <v>947</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E458" t="s">
+        <v>948</v>
+      </c>
+      <c r="F458" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B459" s="1">
+        <v>87</v>
+      </c>
+      <c r="C459" t="s">
+        <v>949</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E459" t="s">
+        <v>950</v>
+      </c>
+      <c r="F459" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B460" s="1">
+        <v>87</v>
+      </c>
+      <c r="C460" t="s">
+        <v>951</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E460" t="s">
+        <v>952</v>
+      </c>
+      <c r="F460" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B461" s="1">
+        <v>87</v>
+      </c>
+      <c r="C461" t="s">
+        <v>953</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E461" t="s">
+        <v>954</v>
+      </c>
+      <c r="F461" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B462" s="1">
+        <v>88</v>
+      </c>
+      <c r="C462" t="s">
+        <v>955</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E462" t="s">
+        <v>956</v>
+      </c>
+      <c r="F462" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B463" s="1">
+        <v>88</v>
+      </c>
+      <c r="C463" t="s">
+        <v>957</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E463" t="s">
+        <v>958</v>
+      </c>
+      <c r="F463" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B464" s="1">
+        <v>88</v>
+      </c>
+      <c r="C464" t="s">
+        <v>959</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E464" t="s">
+        <v>960</v>
+      </c>
+      <c r="F464" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" s="1">
+        <v>88</v>
+      </c>
+      <c r="C465" t="s">
+        <v>961</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E465" t="s">
+        <v>962</v>
+      </c>
+      <c r="F465" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B466" s="1">
+        <v>88</v>
+      </c>
+      <c r="C466" t="s">
+        <v>963</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E466" t="s">
+        <v>964</v>
+      </c>
+      <c r="F466" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B467" s="1">
+        <v>88</v>
+      </c>
+      <c r="C467" t="s">
+        <v>965</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E467" t="s">
+        <v>966</v>
+      </c>
+      <c r="F467" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B468" s="1">
+        <v>88</v>
+      </c>
+      <c r="C468" t="s">
+        <v>967</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E468" t="s">
+        <v>968</v>
+      </c>
+      <c r="F468" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B469" s="1">
+        <v>89</v>
+      </c>
+      <c r="C469" t="s">
+        <v>969</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E469" t="s">
+        <v>970</v>
+      </c>
+      <c r="F469" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B470" s="1">
+        <v>89</v>
+      </c>
+      <c r="C470" t="s">
+        <v>971</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E470" t="s">
+        <v>972</v>
+      </c>
+      <c r="F470" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B471" s="1">
+        <v>89</v>
+      </c>
+      <c r="C471" t="s">
+        <v>973</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E471" t="s">
+        <v>974</v>
+      </c>
+      <c r="F471" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B472" s="1">
+        <v>89</v>
+      </c>
+      <c r="C472" t="s">
+        <v>975</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E472" t="s">
+        <v>976</v>
+      </c>
+      <c r="F472" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B473" s="1">
+        <v>89</v>
+      </c>
+      <c r="C473" t="s">
+        <v>977</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E473" t="s">
+        <v>978</v>
+      </c>
+      <c r="F473" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="1">
+        <v>89</v>
+      </c>
+      <c r="C474" t="s">
+        <v>979</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E474" t="s">
+        <v>980</v>
+      </c>
+      <c r="F474" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B475" s="1">
+        <v>90</v>
+      </c>
+      <c r="C475" t="s">
+        <v>981</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E475" t="s">
+        <v>982</v>
+      </c>
+      <c r="F475" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B476" s="1">
+        <v>90</v>
+      </c>
+      <c r="C476" t="s">
+        <v>983</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E476" t="s">
+        <v>984</v>
+      </c>
+      <c r="F476" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B477" s="1">
+        <v>90</v>
+      </c>
+      <c r="C477" t="s">
+        <v>985</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E477" t="s">
+        <v>986</v>
+      </c>
+      <c r="F477" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B478" s="1">
+        <v>90</v>
+      </c>
+      <c r="C478" t="s">
+        <v>987</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E478" t="s">
+        <v>988</v>
+      </c>
+      <c r="F478" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B479" s="1">
+        <v>90</v>
+      </c>
+      <c r="C479" t="s">
+        <v>989</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E479" t="s">
+        <v>990</v>
+      </c>
+      <c r="F479" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B480" s="1">
+        <v>90</v>
+      </c>
+      <c r="C480" t="s">
+        <v>991</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E480" t="s">
+        <v>992</v>
+      </c>
+      <c r="F480" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B481" s="1">
+        <v>91</v>
+      </c>
+      <c r="C481" t="s">
+        <v>993</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E481" t="s">
+        <v>994</v>
+      </c>
+      <c r="F481" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B482" s="1">
+        <v>91</v>
+      </c>
+      <c r="C482" t="s">
+        <v>995</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E482" t="s">
+        <v>996</v>
+      </c>
+      <c r="F482" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B483" s="1">
+        <v>91</v>
+      </c>
+      <c r="C483" t="s">
+        <v>997</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E483" t="s">
+        <v>998</v>
+      </c>
+      <c r="F483" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B484" s="1">
+        <v>91</v>
+      </c>
+      <c r="C484" t="s">
+        <v>999</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F484" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B485" s="1">
+        <v>91</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F485" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B486" s="1">
+        <v>91</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F486" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B487" s="1">
+        <v>92</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F487" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B488" s="1">
+        <v>92</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F488" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B489" s="1">
+        <v>92</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F489" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B490" s="1">
+        <v>92</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F490" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B491" s="1">
+        <v>92</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F491" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B492" s="1">
+        <v>92</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F492" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B493" s="1">
+        <v>92</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F493" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B494" s="1">
+        <v>92</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F494" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B495" s="1">
+        <v>93</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F495" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B496" s="1">
+        <v>93</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F496" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B497" s="1">
+        <v>93</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F497" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B498" s="1">
+        <v>93</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F498" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B499" s="1">
+        <v>93</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F499" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B500" s="1">
+        <v>93</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F500" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B501" s="1">
+        <v>94</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F501" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B502" s="1">
+        <v>94</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F502" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B503" s="1">
+        <v>94</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F503" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B504" s="1">
+        <v>94</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F504" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B505" s="1">
+        <v>94</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F505" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B506" s="1">
+        <v>94</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B507" s="1">
+        <v>94</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F507" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B508" s="1">
+        <v>95</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F508" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B509" s="1">
+        <v>95</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F509" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B510" s="1">
+        <v>95</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F510" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B511" s="1">
+        <v>95</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F511" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B512" s="1">
+        <v>95</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F512" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B513" s="1">
+        <v>95</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F513" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B514" s="1">
+        <v>95</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F514" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B515" s="1">
+        <v>95</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F515" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B516" s="1">
+        <v>96</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F516" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B517" s="1">
+        <v>96</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F517" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B518" s="1">
+        <v>96</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F518" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B519" s="1">
+        <v>96</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F519" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B520" s="1">
+        <v>96</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F520" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B521" s="1">
+        <v>96</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F521" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B522" s="1">
+        <v>96</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F522" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B523" s="1">
+        <v>97</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F523" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B524" s="1">
+        <v>97</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F524" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B525" s="1">
+        <v>97</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F525" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B526" s="1">
+        <v>97</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F526" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B527" s="1">
+        <v>97</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F527" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B528" s="1">
+        <v>97</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F528" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B529" s="1">
+        <v>97</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F529" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B530" s="1">
+        <v>98</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F530" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B531" s="1">
+        <v>98</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F531" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B532" s="1">
+        <v>98</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F532" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B533" s="1">
+        <v>98</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F533" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B534" s="1">
+        <v>98</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F534" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B535" s="1">
+        <v>98</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F535" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B536" s="1">
+        <v>98</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F536" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B537" s="1">
+        <v>99</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F537" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B538" s="1">
+        <v>99</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F538" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B539" s="1">
+        <v>99</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F539" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B540" s="1">
+        <v>99</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F540" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B541" s="1">
+        <v>99</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F541" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B542" s="1">
+        <v>99</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F542" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B543" s="1">
+        <v>99</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F543" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B544" s="1">
+        <v>100</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F544" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B545" s="1">
+        <v>100</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B546" s="1">
+        <v>100</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F546" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B547" s="1">
+        <v>100</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F547" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B548" s="1">
+        <v>100</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F548" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B549" s="1">
+        <v>100</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F549" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B550" s="1">
+        <v>100</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F550" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F551" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9632,12 +14968,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.59765625" customWidth="1"/>
     <col min="2" max="2" width="8.796875" customWidth="1"/>
@@ -9652,12 +14988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.59765625" customWidth="1"/>
     <col min="2" max="2" width="8.796875" customWidth="1"/>

--- a/faza_2.xlsx
+++ b/faza_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokan\Documents\LENA\Masters\OPJ\natural-language-processing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423231B-D19E-4C66-AD10-2CE3DCE91A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8042B578-97E7-4B76-B349-8E4E511166FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3935,10 +3935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F551"/>
+  <dimension ref="A1:F550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B518" workbookViewId="0">
-      <selection activeCell="F551" sqref="F551"/>
+    <sheetView tabSelected="1" topLeftCell="B509" workbookViewId="0">
+      <selection activeCell="E515" sqref="E515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14749,7 +14749,7 @@
         <v>1106</v>
       </c>
       <c r="F540" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -14769,7 +14769,7 @@
         <v>1108</v>
       </c>
       <c r="F541" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -14789,7 +14789,7 @@
         <v>1110</v>
       </c>
       <c r="F542" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -14809,7 +14809,7 @@
         <v>1112</v>
       </c>
       <c r="F543" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -14829,7 +14829,7 @@
         <v>1114</v>
       </c>
       <c r="F544" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -14869,7 +14869,7 @@
         <v>1118</v>
       </c>
       <c r="F546" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -14929,7 +14929,7 @@
         <v>1124</v>
       </c>
       <c r="F549" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -14949,11 +14949,6 @@
         <v>1126</v>
       </c>
       <c r="F550" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F551" s="1">
         <v>1</v>
       </c>
     </row>

--- a/faza_2.xlsx
+++ b/faza_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duja0807\Desktop\master\natural_project\natural-language-processing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EBBDF5-507D-4C0D-A0CA-92673023F4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8059BA-8421-4068-817A-1B9AB03A279B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3904,9 +3904,6 @@
     <t>58_absoluteCoordinate</t>
   </si>
   <si>
-    <t>prona?i int u stringu</t>
-  </si>
-  <si>
     <t>58_countDigits</t>
   </si>
   <si>
@@ -4820,6 +4817,9 @@
   </si>
   <si>
     <t>Adapter za PHPExcel   Citanje excel fajla od pocetka do kraja definisanih   kolona i prebacivanje u php format excela</t>
+  </si>
+  <si>
+    <t>pronaci int u stringu</t>
   </si>
 </sst>
 </file>
@@ -5662,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="F551" sqref="F551:F750"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="D688" sqref="D688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16681,13 +16681,13 @@
         <v>40</v>
       </c>
       <c r="C551" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D551" t="s">
         <v>1386</v>
       </c>
-      <c r="D551" t="s">
-        <v>1387</v>
-      </c>
       <c r="E551" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -16701,13 +16701,13 @@
         <v>40</v>
       </c>
       <c r="C552" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D552" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E552" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -16721,13 +16721,13 @@
         <v>40</v>
       </c>
       <c r="C553" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D553" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E553" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F553">
         <v>0</v>
@@ -16741,13 +16741,13 @@
         <v>40</v>
       </c>
       <c r="C554" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D554" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E554" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -16761,13 +16761,13 @@
         <v>40</v>
       </c>
       <c r="C555" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D555" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E555" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -16781,13 +16781,13 @@
         <v>40</v>
       </c>
       <c r="C556" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D556" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E556" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F556">
         <v>2</v>
@@ -16801,13 +16801,13 @@
         <v>40</v>
       </c>
       <c r="C557" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D557" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E557" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -16821,13 +16821,13 @@
         <v>40</v>
       </c>
       <c r="C558" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D558" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E558" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F558">
         <v>1</v>
@@ -16841,13 +16841,13 @@
         <v>40</v>
       </c>
       <c r="C559" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D559" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E559" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F559">
         <v>1</v>
@@ -16861,13 +16861,13 @@
         <v>40</v>
       </c>
       <c r="C560" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D560" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E560" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -16881,13 +16881,13 @@
         <v>40</v>
       </c>
       <c r="C561" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D561" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E561" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F561">
         <v>2</v>
@@ -16901,13 +16901,13 @@
         <v>40</v>
       </c>
       <c r="C562" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D562" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E562" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F562">
         <v>3</v>
@@ -16921,13 +16921,13 @@
         <v>40</v>
       </c>
       <c r="C563" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D563" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E563" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -16947,7 +16947,7 @@
         <v>1170</v>
       </c>
       <c r="E564" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F564">
         <v>3</v>
@@ -16967,7 +16967,7 @@
         <v>1170</v>
       </c>
       <c r="E565" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F565">
         <v>2</v>
@@ -16987,7 +16987,7 @@
         <v>1170</v>
       </c>
       <c r="E566" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -17007,7 +17007,7 @@
         <v>1170</v>
       </c>
       <c r="E567" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F567">
         <v>3</v>
@@ -17027,7 +17027,7 @@
         <v>1170</v>
       </c>
       <c r="E568" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F568">
         <v>2</v>
@@ -17047,7 +17047,7 @@
         <v>1170</v>
       </c>
       <c r="E569" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F569">
         <v>2</v>
@@ -17067,7 +17067,7 @@
         <v>1170</v>
       </c>
       <c r="E570" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>1178</v>
       </c>
       <c r="E571" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F571">
         <v>2</v>
@@ -17107,7 +17107,7 @@
         <v>1178</v>
       </c>
       <c r="E572" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F572">
         <v>3</v>
@@ -17127,7 +17127,7 @@
         <v>1178</v>
       </c>
       <c r="E573" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F573">
         <v>1</v>
@@ -17147,7 +17147,7 @@
         <v>1178</v>
       </c>
       <c r="E574" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F574">
         <v>3</v>
@@ -17167,7 +17167,7 @@
         <v>1178</v>
       </c>
       <c r="E575" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F575">
         <v>1</v>
@@ -17187,7 +17187,7 @@
         <v>1178</v>
       </c>
       <c r="E576" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -17207,7 +17207,7 @@
         <v>1178</v>
       </c>
       <c r="E577" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F577">
         <v>3</v>
@@ -17227,7 +17227,7 @@
         <v>1186</v>
       </c>
       <c r="E578" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F578">
         <v>3</v>
@@ -17247,7 +17247,7 @@
         <v>1186</v>
       </c>
       <c r="E579" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F579">
         <v>2</v>
@@ -17267,7 +17267,7 @@
         <v>1186</v>
       </c>
       <c r="E580" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F580">
         <v>2</v>
@@ -17287,7 +17287,7 @@
         <v>1186</v>
       </c>
       <c r="E581" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F581">
         <v>2</v>
@@ -17307,7 +17307,7 @@
         <v>1186</v>
       </c>
       <c r="E582" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -17327,7 +17327,7 @@
         <v>1186</v>
       </c>
       <c r="E583" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F583">
         <v>2</v>
@@ -17347,7 +17347,7 @@
         <v>1193</v>
       </c>
       <c r="E584" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F584">
         <v>3</v>
@@ -17367,7 +17367,7 @@
         <v>1193</v>
       </c>
       <c r="E585" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -17387,7 +17387,7 @@
         <v>1193</v>
       </c>
       <c r="E586" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F586">
         <v>2</v>
@@ -17407,7 +17407,7 @@
         <v>1193</v>
       </c>
       <c r="E587" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F587">
         <v>2</v>
@@ -17427,7 +17427,7 @@
         <v>1193</v>
       </c>
       <c r="E588" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F588">
         <v>2</v>
@@ -17447,7 +17447,7 @@
         <v>1193</v>
       </c>
       <c r="E589" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F589">
         <v>2</v>
@@ -17467,7 +17467,7 @@
         <v>1200</v>
       </c>
       <c r="E590" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F590">
         <v>2</v>
@@ -17487,7 +17487,7 @@
         <v>1200</v>
       </c>
       <c r="E591" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F591">
         <v>2</v>
@@ -17507,7 +17507,7 @@
         <v>1200</v>
       </c>
       <c r="E592" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F592">
         <v>2</v>
@@ -17527,7 +17527,7 @@
         <v>1200</v>
       </c>
       <c r="E593" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -17547,7 +17547,7 @@
         <v>1200</v>
       </c>
       <c r="E594" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F594">
         <v>2</v>
@@ -17567,7 +17567,7 @@
         <v>1200</v>
       </c>
       <c r="E595" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F595">
         <v>2</v>
@@ -17587,7 +17587,7 @@
         <v>1207</v>
       </c>
       <c r="E596" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F596">
         <v>3</v>
@@ -17607,7 +17607,7 @@
         <v>1207</v>
       </c>
       <c r="E597" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -17627,7 +17627,7 @@
         <v>1207</v>
       </c>
       <c r="E598" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F598">
         <v>2</v>
@@ -17647,7 +17647,7 @@
         <v>1207</v>
       </c>
       <c r="E599" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F599">
         <v>2</v>
@@ -17667,7 +17667,7 @@
         <v>1207</v>
       </c>
       <c r="E600" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F600">
         <v>2</v>
@@ -17687,7 +17687,7 @@
         <v>1207</v>
       </c>
       <c r="E601" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F601">
         <v>2</v>
@@ -17707,7 +17707,7 @@
         <v>1214</v>
       </c>
       <c r="E602" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -17727,7 +17727,7 @@
         <v>1214</v>
       </c>
       <c r="E603" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F603">
         <v>2</v>
@@ -17747,7 +17747,7 @@
         <v>1214</v>
       </c>
       <c r="E604" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F604">
         <v>2</v>
@@ -17767,7 +17767,7 @@
         <v>1214</v>
       </c>
       <c r="E605" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F605">
         <v>2</v>
@@ -17787,7 +17787,7 @@
         <v>1214</v>
       </c>
       <c r="E606" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F606">
         <v>3</v>
@@ -17807,7 +17807,7 @@
         <v>1214</v>
       </c>
       <c r="E607" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F607">
         <v>3</v>
@@ -17827,7 +17827,7 @@
         <v>1221</v>
       </c>
       <c r="E608" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -17847,7 +17847,7 @@
         <v>1221</v>
       </c>
       <c r="E609" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F609">
         <v>2</v>
@@ -17867,7 +17867,7 @@
         <v>1221</v>
       </c>
       <c r="E610" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F610">
         <v>2</v>
@@ -17887,7 +17887,7 @@
         <v>1221</v>
       </c>
       <c r="E611" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F611">
         <v>2</v>
@@ -17907,7 +17907,7 @@
         <v>1221</v>
       </c>
       <c r="E612" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F612">
         <v>2</v>
@@ -17927,7 +17927,7 @@
         <v>1221</v>
       </c>
       <c r="E613" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F613">
         <v>2</v>
@@ -17947,7 +17947,7 @@
         <v>1228</v>
       </c>
       <c r="E614" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F614">
         <v>2</v>
@@ -17967,7 +17967,7 @@
         <v>1228</v>
       </c>
       <c r="E615" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F615">
         <v>2</v>
@@ -17987,7 +17987,7 @@
         <v>1228</v>
       </c>
       <c r="E616" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -18007,7 +18007,7 @@
         <v>1228</v>
       </c>
       <c r="E617" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F617">
         <v>1</v>
@@ -18027,7 +18027,7 @@
         <v>1228</v>
       </c>
       <c r="E618" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F618">
         <v>2</v>
@@ -18047,7 +18047,7 @@
         <v>1228</v>
       </c>
       <c r="E619" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -18067,7 +18067,7 @@
         <v>1235</v>
       </c>
       <c r="E620" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F620">
         <v>2</v>
@@ -18087,7 +18087,7 @@
         <v>1235</v>
       </c>
       <c r="E621" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F621">
         <v>2</v>
@@ -18107,7 +18107,7 @@
         <v>1235</v>
       </c>
       <c r="E622" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F622">
         <v>2</v>
@@ -18127,7 +18127,7 @@
         <v>1235</v>
       </c>
       <c r="E623" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F623">
         <v>3</v>
@@ -18147,7 +18147,7 @@
         <v>1235</v>
       </c>
       <c r="E624" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F624">
         <v>2</v>
@@ -18167,7 +18167,7 @@
         <v>1241</v>
       </c>
       <c r="E625" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F625">
         <v>1</v>
@@ -18187,7 +18187,7 @@
         <v>1241</v>
       </c>
       <c r="E626" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F626">
         <v>3</v>
@@ -18207,7 +18207,7 @@
         <v>1241</v>
       </c>
       <c r="E627" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F627">
         <v>2</v>
@@ -18227,7 +18227,7 @@
         <v>1241</v>
       </c>
       <c r="E628" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F628">
         <v>2</v>
@@ -18247,7 +18247,7 @@
         <v>1241</v>
       </c>
       <c r="E629" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -18267,7 +18267,7 @@
         <v>1241</v>
       </c>
       <c r="E630" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -18287,7 +18287,7 @@
         <v>1248</v>
       </c>
       <c r="E631" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F631">
         <v>1</v>
@@ -18307,7 +18307,7 @@
         <v>1248</v>
       </c>
       <c r="E632" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -18327,7 +18327,7 @@
         <v>1248</v>
       </c>
       <c r="E633" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F633">
         <v>1</v>
@@ -18347,7 +18347,7 @@
         <v>1248</v>
       </c>
       <c r="E634" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F634">
         <v>3</v>
@@ -18367,7 +18367,7 @@
         <v>1248</v>
       </c>
       <c r="E635" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F635">
         <v>2</v>
@@ -18387,7 +18387,7 @@
         <v>1248</v>
       </c>
       <c r="E636" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -18407,7 +18407,7 @@
         <v>1248</v>
       </c>
       <c r="E637" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F637">
         <v>2</v>
@@ -18427,7 +18427,7 @@
         <v>1256</v>
       </c>
       <c r="E638" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F638">
         <v>1</v>
@@ -18447,7 +18447,7 @@
         <v>1256</v>
       </c>
       <c r="E639" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F639">
         <v>2</v>
@@ -18467,7 +18467,7 @@
         <v>1256</v>
       </c>
       <c r="E640" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -18487,7 +18487,7 @@
         <v>1256</v>
       </c>
       <c r="E641" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F641">
         <v>0</v>
@@ -18507,7 +18507,7 @@
         <v>1256</v>
       </c>
       <c r="E642" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F642">
         <v>2</v>
@@ -18527,7 +18527,7 @@
         <v>1256</v>
       </c>
       <c r="E643" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F643">
         <v>3</v>
@@ -18547,7 +18547,7 @@
         <v>1256</v>
       </c>
       <c r="E644" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F644">
         <v>3</v>
@@ -18567,7 +18567,7 @@
         <v>1264</v>
       </c>
       <c r="E645" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F645">
         <v>0</v>
@@ -18587,7 +18587,7 @@
         <v>1264</v>
       </c>
       <c r="E646" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F646">
         <v>3</v>
@@ -18607,7 +18607,7 @@
         <v>1264</v>
       </c>
       <c r="E647" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F647">
         <v>0</v>
@@ -18627,7 +18627,7 @@
         <v>1264</v>
       </c>
       <c r="E648" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F648">
         <v>2</v>
@@ -18647,7 +18647,7 @@
         <v>1264</v>
       </c>
       <c r="E649" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F649">
         <v>2</v>
@@ -18667,7 +18667,7 @@
         <v>1264</v>
       </c>
       <c r="E650" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F650">
         <v>2</v>
@@ -18687,7 +18687,7 @@
         <v>1264</v>
       </c>
       <c r="E651" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F651">
         <v>2</v>
@@ -18707,7 +18707,7 @@
         <v>1272</v>
       </c>
       <c r="E652" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F652">
         <v>2</v>
@@ -18727,7 +18727,7 @@
         <v>1272</v>
       </c>
       <c r="E653" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F653">
         <v>2</v>
@@ -18747,7 +18747,7 @@
         <v>1272</v>
       </c>
       <c r="E654" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F654">
         <v>1</v>
@@ -18767,7 +18767,7 @@
         <v>1272</v>
       </c>
       <c r="E655" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F655">
         <v>0</v>
@@ -18787,7 +18787,7 @@
         <v>1272</v>
       </c>
       <c r="E656" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F656">
         <v>1</v>
@@ -18807,7 +18807,7 @@
         <v>1272</v>
       </c>
       <c r="E657" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F657">
         <v>0</v>
@@ -18827,7 +18827,7 @@
         <v>1272</v>
       </c>
       <c r="E658" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F658">
         <v>2</v>
@@ -18847,7 +18847,7 @@
         <v>1280</v>
       </c>
       <c r="E659" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F659">
         <v>0</v>
@@ -18867,7 +18867,7 @@
         <v>1280</v>
       </c>
       <c r="E660" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F660">
         <v>2</v>
@@ -18887,7 +18887,7 @@
         <v>1280</v>
       </c>
       <c r="E661" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F661">
         <v>2</v>
@@ -18907,7 +18907,7 @@
         <v>1280</v>
       </c>
       <c r="E662" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F662">
         <v>2</v>
@@ -18927,7 +18927,7 @@
         <v>1280</v>
       </c>
       <c r="E663" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F663">
         <v>3</v>
@@ -18947,7 +18947,7 @@
         <v>1280</v>
       </c>
       <c r="E664" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F664">
         <v>2</v>
@@ -18967,7 +18967,7 @@
         <v>1287</v>
       </c>
       <c r="E665" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F665">
         <v>1</v>
@@ -18987,7 +18987,7 @@
         <v>1287</v>
       </c>
       <c r="E666" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F666">
         <v>3</v>
@@ -19007,7 +19007,7 @@
         <v>1287</v>
       </c>
       <c r="E667" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F667">
         <v>0</v>
@@ -19027,7 +19027,7 @@
         <v>1287</v>
       </c>
       <c r="E668" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F668">
         <v>3</v>
@@ -19047,7 +19047,7 @@
         <v>1287</v>
       </c>
       <c r="E669" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F669">
         <v>2</v>
@@ -19067,7 +19067,7 @@
         <v>1287</v>
       </c>
       <c r="E670" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F670">
         <v>0</v>
@@ -19084,10 +19084,10 @@
         <v>1293</v>
       </c>
       <c r="D671" t="s">
-        <v>1294</v>
+        <v>1599</v>
       </c>
       <c r="E671" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F671">
         <v>0</v>
@@ -19101,13 +19101,13 @@
         <v>58</v>
       </c>
       <c r="C672" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D672" t="s">
-        <v>1294</v>
+        <v>1599</v>
       </c>
       <c r="E672" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F672">
         <v>3</v>
@@ -19121,13 +19121,13 @@
         <v>58</v>
       </c>
       <c r="C673" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D673" t="s">
-        <v>1294</v>
+        <v>1599</v>
       </c>
       <c r="E673" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F673">
         <v>2</v>
@@ -19141,13 +19141,13 @@
         <v>58</v>
       </c>
       <c r="C674" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D674" t="s">
-        <v>1294</v>
+        <v>1599</v>
       </c>
       <c r="E674" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F674">
         <v>2</v>
@@ -19161,13 +19161,13 @@
         <v>58</v>
       </c>
       <c r="C675" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D675" t="s">
-        <v>1294</v>
+        <v>1599</v>
       </c>
       <c r="E675" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F675">
         <v>2</v>
@@ -19181,13 +19181,13 @@
         <v>58</v>
       </c>
       <c r="C676" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D676" t="s">
-        <v>1294</v>
+        <v>1599</v>
       </c>
       <c r="E676" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F676">
         <v>0</v>
@@ -19201,13 +19201,13 @@
         <v>59</v>
       </c>
       <c r="C677" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D677" t="s">
         <v>1300</v>
       </c>
-      <c r="D677" t="s">
-        <v>1301</v>
-      </c>
       <c r="E677" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F677">
         <v>3</v>
@@ -19221,13 +19221,13 @@
         <v>59</v>
       </c>
       <c r="C678" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D678" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E678" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F678">
         <v>1</v>
@@ -19241,13 +19241,13 @@
         <v>59</v>
       </c>
       <c r="C679" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D679" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E679" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F679">
         <v>0</v>
@@ -19261,13 +19261,13 @@
         <v>59</v>
       </c>
       <c r="C680" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D680" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E680" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F680">
         <v>0</v>
@@ -19281,13 +19281,13 @@
         <v>59</v>
       </c>
       <c r="C681" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D681" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E681" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F681">
         <v>2</v>
@@ -19301,13 +19301,13 @@
         <v>59</v>
       </c>
       <c r="C682" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D682" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E682" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F682">
         <v>1</v>
@@ -19321,13 +19321,13 @@
         <v>60</v>
       </c>
       <c r="C683" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D683" t="s">
         <v>1307</v>
       </c>
-      <c r="D683" t="s">
-        <v>1308</v>
-      </c>
       <c r="E683" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F683">
         <v>2</v>
@@ -19341,13 +19341,13 @@
         <v>60</v>
       </c>
       <c r="C684" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D684" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E684" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F684">
         <v>1</v>
@@ -19361,13 +19361,13 @@
         <v>60</v>
       </c>
       <c r="C685" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D685" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E685" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F685">
         <v>0</v>
@@ -19381,13 +19381,13 @@
         <v>60</v>
       </c>
       <c r="C686" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D686" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E686" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F686">
         <v>3</v>
@@ -19401,13 +19401,13 @@
         <v>60</v>
       </c>
       <c r="C687" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D687" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E687" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F687">
         <v>2</v>
@@ -19421,13 +19421,13 @@
         <v>60</v>
       </c>
       <c r="C688" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D688" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E688" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F688">
         <v>2</v>
@@ -19441,13 +19441,13 @@
         <v>61</v>
       </c>
       <c r="C689" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D689" t="s">
         <v>1314</v>
       </c>
-      <c r="D689" t="s">
-        <v>1315</v>
-      </c>
       <c r="E689" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F689">
         <v>0</v>
@@ -19461,13 +19461,13 @@
         <v>61</v>
       </c>
       <c r="C690" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D690" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E690" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F690">
         <v>2</v>
@@ -19481,13 +19481,13 @@
         <v>61</v>
       </c>
       <c r="C691" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D691" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E691" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F691">
         <v>0</v>
@@ -19501,13 +19501,13 @@
         <v>61</v>
       </c>
       <c r="C692" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D692" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E692" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F692">
         <v>2</v>
@@ -19521,13 +19521,13 @@
         <v>61</v>
       </c>
       <c r="C693" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D693" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E693" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F693">
         <v>2</v>
@@ -19541,13 +19541,13 @@
         <v>61</v>
       </c>
       <c r="C694" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D694" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E694" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F694">
         <v>2</v>
@@ -19561,13 +19561,13 @@
         <v>61</v>
       </c>
       <c r="C695" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D695" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E695" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F695">
         <v>3</v>
@@ -19581,13 +19581,13 @@
         <v>62</v>
       </c>
       <c r="C696" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D696" t="s">
         <v>1322</v>
       </c>
-      <c r="D696" t="s">
-        <v>1323</v>
-      </c>
       <c r="E696" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F696">
         <v>2</v>
@@ -19601,13 +19601,13 @@
         <v>62</v>
       </c>
       <c r="C697" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D697" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E697" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F697">
         <v>2</v>
@@ -19621,13 +19621,13 @@
         <v>62</v>
       </c>
       <c r="C698" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D698" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E698" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F698">
         <v>0</v>
@@ -19641,13 +19641,13 @@
         <v>62</v>
       </c>
       <c r="C699" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D699" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E699" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F699">
         <v>1</v>
@@ -19661,13 +19661,13 @@
         <v>62</v>
       </c>
       <c r="C700" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D700" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E700" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F700">
         <v>0</v>
@@ -19681,13 +19681,13 @@
         <v>62</v>
       </c>
       <c r="C701" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D701" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E701" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F701">
         <v>2</v>
@@ -19701,13 +19701,13 @@
         <v>63</v>
       </c>
       <c r="C702" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D702" t="s">
         <v>1329</v>
       </c>
-      <c r="D702" t="s">
-        <v>1330</v>
-      </c>
       <c r="E702" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F702">
         <v>0</v>
@@ -19721,13 +19721,13 @@
         <v>63</v>
       </c>
       <c r="C703" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D703" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E703" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F703">
         <v>2</v>
@@ -19741,13 +19741,13 @@
         <v>63</v>
       </c>
       <c r="C704" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D704" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E704" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F704">
         <v>3</v>
@@ -19761,13 +19761,13 @@
         <v>63</v>
       </c>
       <c r="C705" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D705" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E705" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F705">
         <v>1</v>
@@ -19781,13 +19781,13 @@
         <v>63</v>
       </c>
       <c r="C706" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D706" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E706" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F706">
         <v>3</v>
@@ -19801,13 +19801,13 @@
         <v>63</v>
       </c>
       <c r="C707" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D707" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E707" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F707">
         <v>3</v>
@@ -19821,13 +19821,13 @@
         <v>64</v>
       </c>
       <c r="C708" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D708" t="s">
         <v>1336</v>
       </c>
-      <c r="D708" t="s">
-        <v>1337</v>
-      </c>
       <c r="E708" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F708">
         <v>2</v>
@@ -19841,13 +19841,13 @@
         <v>64</v>
       </c>
       <c r="C709" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D709" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E709" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F709">
         <v>0</v>
@@ -19861,13 +19861,13 @@
         <v>64</v>
       </c>
       <c r="C710" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D710" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E710" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F710">
         <v>2</v>
@@ -19881,13 +19881,13 @@
         <v>64</v>
       </c>
       <c r="C711" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D711" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E711" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F711">
         <v>2</v>
@@ -19901,13 +19901,13 @@
         <v>64</v>
       </c>
       <c r="C712" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D712" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E712" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F712">
         <v>2</v>
@@ -19921,13 +19921,13 @@
         <v>64</v>
       </c>
       <c r="C713" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D713" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E713" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F713">
         <v>0</v>
@@ -19941,13 +19941,13 @@
         <v>65</v>
       </c>
       <c r="C714" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D714" t="s">
         <v>1343</v>
       </c>
-      <c r="D714" t="s">
-        <v>1344</v>
-      </c>
       <c r="E714" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F714">
         <v>2</v>
@@ -19961,13 +19961,13 @@
         <v>65</v>
       </c>
       <c r="C715" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D715" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E715" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F715">
         <v>2</v>
@@ -19981,13 +19981,13 @@
         <v>65</v>
       </c>
       <c r="C716" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D716" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E716" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F716">
         <v>0</v>
@@ -20001,13 +20001,13 @@
         <v>65</v>
       </c>
       <c r="C717" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D717" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E717" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F717">
         <v>3</v>
@@ -20021,13 +20021,13 @@
         <v>65</v>
       </c>
       <c r="C718" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D718" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E718" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F718">
         <v>2</v>
@@ -20041,13 +20041,13 @@
         <v>65</v>
       </c>
       <c r="C719" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D719" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E719" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F719">
         <v>0</v>
@@ -20061,13 +20061,13 @@
         <v>65</v>
       </c>
       <c r="C720" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D720" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E720" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F720">
         <v>2</v>
@@ -20081,13 +20081,13 @@
         <v>66</v>
       </c>
       <c r="C721" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D721" t="s">
         <v>1351</v>
       </c>
-      <c r="D721" t="s">
-        <v>1352</v>
-      </c>
       <c r="E721" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F721">
         <v>3</v>
@@ -20101,13 +20101,13 @@
         <v>66</v>
       </c>
       <c r="C722" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D722" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E722" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F722">
         <v>2</v>
@@ -20121,13 +20121,13 @@
         <v>66</v>
       </c>
       <c r="C723" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D723" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E723" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F723">
         <v>3</v>
@@ -20141,13 +20141,13 @@
         <v>66</v>
       </c>
       <c r="C724" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D724" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E724" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F724">
         <v>2</v>
@@ -20161,13 +20161,13 @@
         <v>66</v>
       </c>
       <c r="C725" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D725" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E725" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F725">
         <v>2</v>
@@ -20181,13 +20181,13 @@
         <v>66</v>
       </c>
       <c r="C726" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D726" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E726" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F726">
         <v>0</v>
@@ -20201,13 +20201,13 @@
         <v>67</v>
       </c>
       <c r="C727" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D727" t="s">
         <v>1358</v>
       </c>
-      <c r="D727" t="s">
-        <v>1359</v>
-      </c>
       <c r="E727" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F727">
         <v>0</v>
@@ -20221,13 +20221,13 @@
         <v>67</v>
       </c>
       <c r="C728" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D728" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E728" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F728">
         <v>1</v>
@@ -20241,13 +20241,13 @@
         <v>67</v>
       </c>
       <c r="C729" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D729" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E729" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F729">
         <v>3</v>
@@ -20261,13 +20261,13 @@
         <v>67</v>
       </c>
       <c r="C730" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D730" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E730" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F730">
         <v>3</v>
@@ -20281,13 +20281,13 @@
         <v>67</v>
       </c>
       <c r="C731" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D731" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E731" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F731">
         <v>2</v>
@@ -20301,13 +20301,13 @@
         <v>67</v>
       </c>
       <c r="C732" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D732" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E732" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F732">
         <v>2</v>
@@ -20321,13 +20321,13 @@
         <v>68</v>
       </c>
       <c r="C733" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D733" t="s">
         <v>1365</v>
       </c>
-      <c r="D733" t="s">
-        <v>1366</v>
-      </c>
       <c r="E733" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F733">
         <v>2</v>
@@ -20341,13 +20341,13 @@
         <v>68</v>
       </c>
       <c r="C734" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D734" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E734" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="F734">
         <v>2</v>
@@ -20361,13 +20361,13 @@
         <v>68</v>
       </c>
       <c r="C735" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D735" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E735" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F735">
         <v>2</v>
@@ -20381,13 +20381,13 @@
         <v>68</v>
       </c>
       <c r="C736" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D736" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E736" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F736">
         <v>2</v>
@@ -20401,13 +20401,13 @@
         <v>68</v>
       </c>
       <c r="C737" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D737" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E737" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F737">
         <v>1</v>
@@ -20421,13 +20421,13 @@
         <v>69</v>
       </c>
       <c r="C738" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D738" t="s">
         <v>1371</v>
       </c>
-      <c r="D738" t="s">
-        <v>1372</v>
-      </c>
       <c r="E738" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F738">
         <v>0</v>
@@ -20441,13 +20441,13 @@
         <v>69</v>
       </c>
       <c r="C739" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D739" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E739" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F739">
         <v>3</v>
@@ -20461,13 +20461,13 @@
         <v>69</v>
       </c>
       <c r="C740" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D740" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E740" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F740">
         <v>0</v>
@@ -20481,13 +20481,13 @@
         <v>69</v>
       </c>
       <c r="C741" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D741" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E741" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F741">
         <v>3</v>
@@ -20501,13 +20501,13 @@
         <v>69</v>
       </c>
       <c r="C742" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D742" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E742" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F742">
         <v>2</v>
@@ -20521,13 +20521,13 @@
         <v>69</v>
       </c>
       <c r="C743" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D743" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E743" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F743">
         <v>2</v>
@@ -20541,13 +20541,13 @@
         <v>69</v>
       </c>
       <c r="C744" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D744" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E744" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F744">
         <v>2</v>
@@ -20561,13 +20561,13 @@
         <v>70</v>
       </c>
       <c r="C745" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D745" t="s">
         <v>1379</v>
       </c>
-      <c r="D745" t="s">
-        <v>1380</v>
-      </c>
       <c r="E745" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F745">
         <v>3</v>
@@ -20581,13 +20581,13 @@
         <v>70</v>
       </c>
       <c r="C746" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D746" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E746" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F746">
         <v>3</v>
@@ -20601,13 +20601,13 @@
         <v>70</v>
       </c>
       <c r="C747" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D747" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E747" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F747">
         <v>2</v>
@@ -20621,13 +20621,13 @@
         <v>70</v>
       </c>
       <c r="C748" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D748" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E748" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="F748">
         <v>3</v>
@@ -20641,13 +20641,13 @@
         <v>70</v>
       </c>
       <c r="C749" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D749" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E749" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F749">
         <v>2</v>
@@ -20661,13 +20661,13 @@
         <v>70</v>
       </c>
       <c r="C750" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D750" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E750" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F750">
         <v>0</v>
